--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T18:05:03+00:00</t>
+    <t>2022-06-06T16:35:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -877,10 +877,10 @@
     <t>parameters</t>
   </si>
   <si>
-    <t>Metadata parameters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parameters {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-metadata-parameters}
+    <t>Metadata in parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameters {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-metadata-parameters-in}
 </t>
   </si>
   <si>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T16:35:02+00:00</t>
+    <t>2022-06-06T19:02:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T19:02:23+00:00</t>
+    <t>2022-06-06T20:42:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T20:42:46+00:00</t>
+    <t>2022-06-14T16:27:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-14T16:27:05+00:00</t>
+    <t>2022-07-12T18:21:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1246,44 +1246,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.00390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="28.78125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="39.0078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="28.78515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="105.953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="105.95703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="168.1875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="168.19140625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="49.01171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="93.55859375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.98046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="28.1484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="24.9765625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="42.97265625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="42.9765625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-12T18:21:32+00:00</t>
+    <t>2022-07-13T16:07:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-13T16:07:41+00:00</t>
+    <t>2022-07-20T21:33:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T21:33:26+00:00</t>
+    <t>2022-07-20T21:53:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T21:53:07+00:00</t>
+    <t>2022-07-20T21:57:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T21:57:20+00:00</t>
+    <t>2022-07-25T23:14:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T13:19:23+00:00</t>
+    <t>2022-07-26T13:53:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T13:53:56+00:00</t>
+    <t>2022-07-26T20:21:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:21:45+00:00</t>
+    <t>2022-07-26T20:30:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:30:24+00:00</t>
+    <t>2022-07-26T20:32:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:32:00+00:00</t>
+    <t>2022-07-26T20:38:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:38:10+00:00</t>
+    <t>2022-07-26T20:48:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:48:14+00:00</t>
+    <t>2022-07-26T20:53:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:53:01+00:00</t>
+    <t>2022-07-26T20:56:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:56:12+00:00</t>
+    <t>2022-07-26T20:57:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:57:39+00:00</t>
+    <t>2022-07-26T21:21:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:21:24+00:00</t>
+    <t>2022-07-26T21:40:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:40:22+00:00</t>
+    <t>2022-07-26T21:41:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:41:29+00:00</t>
+    <t>2022-07-26T21:42:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:42:01+00:00</t>
+    <t>2022-07-26T21:42:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:42:43+00:00</t>
+    <t>2022-07-26T21:43:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:43:18+00:00</t>
+    <t>2022-08-15T19:44:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T19:44:05+00:00</t>
+    <t>2022-08-15T20:51:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T20:51:57+00:00</t>
+    <t>2022-08-16T21:28:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-16T21:28:14+00:00</t>
+    <t>2022-08-23T21:30:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5064" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5064" uniqueCount="288">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T21:30:49+00:00</t>
+    <t>2022-09-08T16:47:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -277,7 +277,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -477,6 +477,10 @@
   </si>
   <si>
     <t>Bundle.link.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -2537,13 +2541,13 @@
         <v>75</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2594,7 +2598,7 @@
         <v>75</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>76</v>
@@ -2612,7 +2616,7 @@
         <v>75</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>75</v>
@@ -2623,11 +2627,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2646,16 +2650,16 @@
         <v>75</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2705,7 +2709,7 @@
         <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>76</v>
@@ -2717,13 +2721,13 @@
         <v>75</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>75</v>
@@ -2734,11 +2738,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2757,19 +2761,19 @@
         <v>85</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>75</v>
@@ -2818,7 +2822,7 @@
         <v>75</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>76</v>
@@ -2830,7 +2834,7 @@
         <v>75</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>75</v>
@@ -2847,7 +2851,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2870,13 +2874,13 @@
         <v>85</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2927,7 +2931,7 @@
         <v>75</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>84</v>
@@ -2956,7 +2960,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2982,10 +2986,10 @@
         <v>98</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3036,7 +3040,7 @@
         <v>75</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>84</v>
@@ -3065,7 +3069,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3073,7 +3077,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>77</v>
@@ -3091,10 +3095,10 @@
         <v>142</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3133,19 +3137,19 @@
         <v>75</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>76</v>
@@ -3157,7 +3161,7 @@
         <v>75</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>75</v>
@@ -3174,7 +3178,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3197,13 +3201,13 @@
         <v>75</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3254,7 +3258,7 @@
         <v>75</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>76</v>
@@ -3272,7 +3276,7 @@
         <v>75</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>75</v>
@@ -3283,11 +3287,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3306,16 +3310,16 @@
         <v>75</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3365,7 +3369,7 @@
         <v>75</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>76</v>
@@ -3377,13 +3381,13 @@
         <v>75</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>75</v>
@@ -3394,11 +3398,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3417,19 +3421,19 @@
         <v>85</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>75</v>
@@ -3478,7 +3482,7 @@
         <v>75</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>76</v>
@@ -3490,7 +3494,7 @@
         <v>75</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>75</v>
@@ -3507,7 +3511,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3533,10 +3537,10 @@
         <v>75</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3587,7 +3591,7 @@
         <v>75</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>76</v>
@@ -3616,7 +3620,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3642,13 +3646,13 @@
         <v>98</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3698,7 +3702,7 @@
         <v>75</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>76</v>
@@ -3727,7 +3731,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3750,13 +3754,13 @@
         <v>85</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3807,7 +3811,7 @@
         <v>75</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>76</v>
@@ -3836,7 +3840,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3862,10 +3866,10 @@
         <v>142</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3916,7 +3920,7 @@
         <v>75</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>76</v>
@@ -3925,7 +3929,7 @@
         <v>84</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>96</v>
@@ -3945,7 +3949,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3968,13 +3972,13 @@
         <v>75</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4025,7 +4029,7 @@
         <v>75</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>76</v>
@@ -4043,7 +4047,7 @@
         <v>75</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>75</v>
@@ -4054,11 +4058,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4077,16 +4081,16 @@
         <v>75</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4136,7 +4140,7 @@
         <v>75</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>76</v>
@@ -4148,13 +4152,13 @@
         <v>75</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>75</v>
@@ -4165,11 +4169,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4188,19 +4192,19 @@
         <v>85</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>75</v>
@@ -4249,7 +4253,7 @@
         <v>75</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>76</v>
@@ -4261,7 +4265,7 @@
         <v>75</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>75</v>
@@ -4278,7 +4282,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4304,13 +4308,13 @@
         <v>104</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4339,10 +4343,10 @@
         <v>124</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>75</v>
@@ -4360,7 +4364,7 @@
         <v>75</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>76</v>
@@ -4389,7 +4393,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4412,16 +4416,16 @@
         <v>85</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4471,7 +4475,7 @@
         <v>75</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>76</v>
@@ -4500,7 +4504,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4526,10 +4530,10 @@
         <v>142</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4580,7 +4584,7 @@
         <v>75</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>76</v>
@@ -4589,7 +4593,7 @@
         <v>84</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>96</v>
@@ -4609,7 +4613,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4632,13 +4636,13 @@
         <v>75</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4689,7 +4693,7 @@
         <v>75</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>76</v>
@@ -4707,7 +4711,7 @@
         <v>75</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>75</v>
@@ -4718,11 +4722,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4741,16 +4745,16 @@
         <v>75</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4800,7 +4804,7 @@
         <v>75</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>76</v>
@@ -4812,13 +4816,13 @@
         <v>75</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>75</v>
@@ -4829,11 +4833,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4852,19 +4856,19 @@
         <v>85</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>75</v>
@@ -4913,7 +4917,7 @@
         <v>75</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>76</v>
@@ -4925,7 +4929,7 @@
         <v>75</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>75</v>
@@ -4942,7 +4946,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4968,10 +4972,10 @@
         <v>104</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5001,10 +5005,10 @@
         <v>124</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>75</v>
@@ -5022,7 +5026,7 @@
         <v>75</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>84</v>
@@ -5051,7 +5055,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5077,13 +5081,13 @@
         <v>98</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5133,7 +5137,7 @@
         <v>75</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>84</v>
@@ -5162,7 +5166,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5185,13 +5189,13 @@
         <v>85</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5242,7 +5246,7 @@
         <v>75</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>76</v>
@@ -5271,7 +5275,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5297,10 +5301,10 @@
         <v>129</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5351,7 +5355,7 @@
         <v>75</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>76</v>
@@ -5380,7 +5384,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5403,13 +5407,13 @@
         <v>85</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5460,7 +5464,7 @@
         <v>75</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>76</v>
@@ -5489,7 +5493,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5512,13 +5516,13 @@
         <v>85</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5569,7 +5573,7 @@
         <v>75</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>76</v>
@@ -5598,7 +5602,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5624,10 +5628,10 @@
         <v>142</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5678,7 +5682,7 @@
         <v>75</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>76</v>
@@ -5687,7 +5691,7 @@
         <v>84</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>96</v>
@@ -5707,7 +5711,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5730,13 +5734,13 @@
         <v>75</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5787,7 +5791,7 @@
         <v>75</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>76</v>
@@ -5805,7 +5809,7 @@
         <v>75</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>75</v>
@@ -5816,11 +5820,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -5839,16 +5843,16 @@
         <v>75</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -5898,7 +5902,7 @@
         <v>75</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>76</v>
@@ -5910,13 +5914,13 @@
         <v>75</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>75</v>
@@ -5927,11 +5931,11 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -5950,19 +5954,19 @@
         <v>85</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>75</v>
@@ -6011,7 +6015,7 @@
         <v>75</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>76</v>
@@ -6023,7 +6027,7 @@
         <v>75</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>75</v>
@@ -6040,7 +6044,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6063,13 +6067,13 @@
         <v>85</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6120,7 +6124,7 @@
         <v>75</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>84</v>
@@ -6149,7 +6153,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6175,10 +6179,10 @@
         <v>98</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6229,7 +6233,7 @@
         <v>75</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>76</v>
@@ -6258,7 +6262,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6281,16 +6285,16 @@
         <v>85</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6340,7 +6344,7 @@
         <v>75</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>76</v>
@@ -6369,7 +6373,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6395,13 +6399,13 @@
         <v>129</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6451,7 +6455,7 @@
         <v>75</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>76</v>
@@ -6480,7 +6484,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6503,16 +6507,16 @@
         <v>85</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6562,7 +6566,7 @@
         <v>75</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>76</v>
@@ -6591,10 +6595,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>75</v>
@@ -6619,10 +6623,10 @@
         <v>142</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6673,7 +6677,7 @@
         <v>75</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>76</v>
@@ -6685,7 +6689,7 @@
         <v>75</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>75</v>
@@ -6702,7 +6706,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6725,13 +6729,13 @@
         <v>75</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6782,7 +6786,7 @@
         <v>75</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>76</v>
@@ -6800,7 +6804,7 @@
         <v>75</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>75</v>
@@ -6811,11 +6815,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -6834,16 +6838,16 @@
         <v>75</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -6893,7 +6897,7 @@
         <v>75</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>76</v>
@@ -6905,13 +6909,13 @@
         <v>75</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>75</v>
@@ -6922,11 +6926,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -6945,19 +6949,19 @@
         <v>85</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>75</v>
@@ -7006,7 +7010,7 @@
         <v>75</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>76</v>
@@ -7018,7 +7022,7 @@
         <v>75</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>75</v>
@@ -7035,7 +7039,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7061,10 +7065,10 @@
         <v>75</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7115,7 +7119,7 @@
         <v>75</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>76</v>
@@ -7144,7 +7148,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7170,13 +7174,13 @@
         <v>98</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7226,7 +7230,7 @@
         <v>75</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>76</v>
@@ -7255,11 +7259,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7278,13 +7282,13 @@
         <v>75</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7335,7 +7339,7 @@
         <v>75</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>76</v>
@@ -7347,16 +7351,16 @@
         <v>75</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>75</v>
@@ -7364,7 +7368,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7390,10 +7394,10 @@
         <v>142</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7444,7 +7448,7 @@
         <v>75</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>76</v>
@@ -7453,7 +7457,7 @@
         <v>84</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>96</v>
@@ -7473,7 +7477,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7496,13 +7500,13 @@
         <v>75</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7553,7 +7557,7 @@
         <v>75</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>76</v>
@@ -7571,7 +7575,7 @@
         <v>75</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>75</v>
@@ -7582,11 +7586,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -7605,16 +7609,16 @@
         <v>75</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -7664,7 +7668,7 @@
         <v>75</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>76</v>
@@ -7676,13 +7680,13 @@
         <v>75</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>75</v>
@@ -7693,11 +7697,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -7716,19 +7720,19 @@
         <v>85</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>75</v>
@@ -7777,7 +7781,7 @@
         <v>75</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>76</v>
@@ -7789,7 +7793,7 @@
         <v>75</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>75</v>
@@ -7806,7 +7810,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7832,13 +7836,13 @@
         <v>104</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -7867,10 +7871,10 @@
         <v>124</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>75</v>
@@ -7888,7 +7892,7 @@
         <v>75</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>76</v>
@@ -7917,7 +7921,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7940,16 +7944,16 @@
         <v>85</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -7999,7 +8003,7 @@
         <v>75</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>76</v>
@@ -8028,7 +8032,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8054,10 +8058,10 @@
         <v>142</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8108,7 +8112,7 @@
         <v>75</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>76</v>
@@ -8117,7 +8121,7 @@
         <v>84</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>96</v>
@@ -8137,7 +8141,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8160,13 +8164,13 @@
         <v>75</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8217,7 +8221,7 @@
         <v>75</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>76</v>
@@ -8235,7 +8239,7 @@
         <v>75</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>75</v>
@@ -8246,11 +8250,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8269,16 +8273,16 @@
         <v>75</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8328,7 +8332,7 @@
         <v>75</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>76</v>
@@ -8340,13 +8344,13 @@
         <v>75</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>75</v>
@@ -8357,11 +8361,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -8380,19 +8384,19 @@
         <v>85</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>75</v>
@@ -8441,7 +8445,7 @@
         <v>75</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>76</v>
@@ -8453,7 +8457,7 @@
         <v>75</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>75</v>
@@ -8470,7 +8474,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8496,10 +8500,10 @@
         <v>104</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8529,10 +8533,10 @@
         <v>124</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>75</v>
@@ -8550,7 +8554,7 @@
         <v>75</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>84</v>
@@ -8579,7 +8583,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8605,13 +8609,13 @@
         <v>98</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -8661,7 +8665,7 @@
         <v>75</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>84</v>
@@ -8690,7 +8694,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8713,13 +8717,13 @@
         <v>85</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8770,7 +8774,7 @@
         <v>75</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>76</v>
@@ -8799,7 +8803,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8825,10 +8829,10 @@
         <v>129</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -8879,7 +8883,7 @@
         <v>75</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>76</v>
@@ -8908,7 +8912,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8931,13 +8935,13 @@
         <v>85</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -8988,7 +8992,7 @@
         <v>75</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>76</v>
@@ -9017,7 +9021,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9040,13 +9044,13 @@
         <v>85</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9097,7 +9101,7 @@
         <v>75</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>76</v>
@@ -9126,7 +9130,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9152,10 +9156,10 @@
         <v>142</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9206,7 +9210,7 @@
         <v>75</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>76</v>
@@ -9215,7 +9219,7 @@
         <v>84</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>96</v>
@@ -9235,7 +9239,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9258,13 +9262,13 @@
         <v>75</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9315,7 +9319,7 @@
         <v>75</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>76</v>
@@ -9333,7 +9337,7 @@
         <v>75</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>75</v>
@@ -9344,11 +9348,11 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -9367,16 +9371,16 @@
         <v>75</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -9426,7 +9430,7 @@
         <v>75</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>76</v>
@@ -9438,13 +9442,13 @@
         <v>75</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>75</v>
@@ -9455,11 +9459,11 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -9478,19 +9482,19 @@
         <v>85</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>75</v>
@@ -9539,7 +9543,7 @@
         <v>75</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>76</v>
@@ -9551,7 +9555,7 @@
         <v>75</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>75</v>
@@ -9568,7 +9572,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9591,13 +9595,13 @@
         <v>85</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -9648,7 +9652,7 @@
         <v>75</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>84</v>
@@ -9677,7 +9681,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9703,10 +9707,10 @@
         <v>98</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -9757,7 +9761,7 @@
         <v>75</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>76</v>
@@ -9786,7 +9790,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9809,16 +9813,16 @@
         <v>85</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -9868,7 +9872,7 @@
         <v>75</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>76</v>
@@ -9897,7 +9901,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9923,13 +9927,13 @@
         <v>129</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -9979,7 +9983,7 @@
         <v>75</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>76</v>
@@ -10008,7 +10012,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10031,16 +10035,16 @@
         <v>85</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -10090,7 +10094,7 @@
         <v>75</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>76</v>
@@ -10119,10 +10123,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C81" t="s" s="2">
         <v>75</v>
@@ -10147,10 +10151,10 @@
         <v>142</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10201,7 +10205,7 @@
         <v>75</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>76</v>
@@ -10213,7 +10217,7 @@
         <v>75</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>75</v>
@@ -10230,7 +10234,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10253,13 +10257,13 @@
         <v>75</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -10310,7 +10314,7 @@
         <v>75</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>76</v>
@@ -10328,7 +10332,7 @@
         <v>75</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>75</v>
@@ -10339,11 +10343,11 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -10362,16 +10366,16 @@
         <v>75</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -10421,7 +10425,7 @@
         <v>75</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>76</v>
@@ -10433,13 +10437,13 @@
         <v>75</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>75</v>
@@ -10450,11 +10454,11 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -10473,19 +10477,19 @@
         <v>85</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>75</v>
@@ -10534,7 +10538,7 @@
         <v>75</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>76</v>
@@ -10546,7 +10550,7 @@
         <v>75</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>75</v>
@@ -10563,7 +10567,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10589,10 +10593,10 @@
         <v>75</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -10643,7 +10647,7 @@
         <v>75</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>76</v>
@@ -10672,7 +10676,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10698,13 +10702,13 @@
         <v>98</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -10754,7 +10758,7 @@
         <v>75</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>76</v>
@@ -10783,7 +10787,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -10806,16 +10810,16 @@
         <v>75</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -10865,7 +10869,7 @@
         <v>75</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>76</v>
@@ -10880,10 +10884,10 @@
         <v>75</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>75</v>
@@ -10894,7 +10898,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -10920,10 +10924,10 @@
         <v>142</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -10974,7 +10978,7 @@
         <v>75</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>76</v>
@@ -10983,7 +10987,7 @@
         <v>84</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>96</v>
@@ -11003,7 +11007,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11026,13 +11030,13 @@
         <v>75</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11083,7 +11087,7 @@
         <v>75</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>76</v>
@@ -11101,7 +11105,7 @@
         <v>75</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>75</v>
@@ -11112,11 +11116,11 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -11135,16 +11139,16 @@
         <v>75</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -11194,7 +11198,7 @@
         <v>75</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>76</v>
@@ -11206,13 +11210,13 @@
         <v>75</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>75</v>
@@ -11223,11 +11227,11 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -11246,19 +11250,19 @@
         <v>85</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>75</v>
@@ -11307,7 +11311,7 @@
         <v>75</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>76</v>
@@ -11319,7 +11323,7 @@
         <v>75</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>75</v>
@@ -11336,7 +11340,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11362,13 +11366,13 @@
         <v>104</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -11397,10 +11401,10 @@
         <v>124</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>75</v>
@@ -11418,7 +11422,7 @@
         <v>75</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>76</v>
@@ -11447,7 +11451,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11470,16 +11474,16 @@
         <v>85</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -11529,7 +11533,7 @@
         <v>75</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>76</v>
@@ -11558,7 +11562,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11584,10 +11588,10 @@
         <v>142</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -11638,7 +11642,7 @@
         <v>75</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>76</v>
@@ -11647,7 +11651,7 @@
         <v>84</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>96</v>
@@ -11667,7 +11671,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -11690,13 +11694,13 @@
         <v>75</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -11747,7 +11751,7 @@
         <v>75</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>76</v>
@@ -11765,7 +11769,7 @@
         <v>75</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>75</v>
@@ -11776,11 +11780,11 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -11799,16 +11803,16 @@
         <v>75</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
@@ -11858,7 +11862,7 @@
         <v>75</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>76</v>
@@ -11870,13 +11874,13 @@
         <v>75</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>75</v>
@@ -11887,11 +11891,11 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -11910,19 +11914,19 @@
         <v>85</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>75</v>
@@ -11971,7 +11975,7 @@
         <v>75</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>76</v>
@@ -11983,7 +11987,7 @@
         <v>75</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>75</v>
@@ -12000,7 +12004,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12026,10 +12030,10 @@
         <v>104</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -12059,10 +12063,10 @@
         <v>124</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>75</v>
@@ -12080,7 +12084,7 @@
         <v>75</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>84</v>
@@ -12109,7 +12113,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12135,13 +12139,13 @@
         <v>98</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
@@ -12191,7 +12195,7 @@
         <v>75</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>84</v>
@@ -12220,7 +12224,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12243,13 +12247,13 @@
         <v>85</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -12300,7 +12304,7 @@
         <v>75</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>76</v>
@@ -12329,7 +12333,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12355,10 +12359,10 @@
         <v>129</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -12409,7 +12413,7 @@
         <v>75</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>76</v>
@@ -12438,7 +12442,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -12461,13 +12465,13 @@
         <v>85</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -12518,7 +12522,7 @@
         <v>75</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>76</v>
@@ -12547,7 +12551,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -12570,13 +12574,13 @@
         <v>85</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -12627,7 +12631,7 @@
         <v>75</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>76</v>
@@ -12656,7 +12660,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -12682,10 +12686,10 @@
         <v>142</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -12736,7 +12740,7 @@
         <v>75</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>76</v>
@@ -12745,7 +12749,7 @@
         <v>84</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>96</v>
@@ -12765,7 +12769,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -12788,13 +12792,13 @@
         <v>75</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
@@ -12845,7 +12849,7 @@
         <v>75</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>76</v>
@@ -12863,7 +12867,7 @@
         <v>75</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>75</v>
@@ -12874,11 +12878,11 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
@@ -12897,16 +12901,16 @@
         <v>75</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -12956,7 +12960,7 @@
         <v>75</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>76</v>
@@ -12968,13 +12972,13 @@
         <v>75</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>75</v>
@@ -12985,11 +12989,11 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
@@ -13008,19 +13012,19 @@
         <v>85</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>75</v>
@@ -13069,7 +13073,7 @@
         <v>75</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>76</v>
@@ -13081,7 +13085,7 @@
         <v>75</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>75</v>
@@ -13098,7 +13102,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13121,13 +13125,13 @@
         <v>85</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -13178,7 +13182,7 @@
         <v>75</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>84</v>
@@ -13207,7 +13211,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13233,10 +13237,10 @@
         <v>98</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
@@ -13287,7 +13291,7 @@
         <v>75</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>76</v>
@@ -13316,7 +13320,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13339,16 +13343,16 @@
         <v>85</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
@@ -13398,7 +13402,7 @@
         <v>75</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>76</v>
@@ -13427,7 +13431,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13453,13 +13457,13 @@
         <v>129</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
@@ -13509,7 +13513,7 @@
         <v>75</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>76</v>
@@ -13538,7 +13542,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -13561,16 +13565,16 @@
         <v>85</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
@@ -13620,7 +13624,7 @@
         <v>75</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>76</v>
@@ -13649,10 +13653,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C113" t="s" s="2">
         <v>75</v>
@@ -13677,10 +13681,10 @@
         <v>142</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -13731,7 +13735,7 @@
         <v>75</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>76</v>
@@ -13743,7 +13747,7 @@
         <v>75</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>75</v>
@@ -13760,7 +13764,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -13783,13 +13787,13 @@
         <v>75</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
@@ -13840,7 +13844,7 @@
         <v>75</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>76</v>
@@ -13858,7 +13862,7 @@
         <v>75</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>75</v>
@@ -13869,11 +13873,11 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
@@ -13892,16 +13896,16 @@
         <v>75</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
@@ -13951,7 +13955,7 @@
         <v>75</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>76</v>
@@ -13963,13 +13967,13 @@
         <v>75</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>75</v>
@@ -13980,11 +13984,11 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
@@ -14003,19 +14007,19 @@
         <v>85</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>75</v>
@@ -14064,7 +14068,7 @@
         <v>75</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>76</v>
@@ -14076,7 +14080,7 @@
         <v>75</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>75</v>
@@ -14093,7 +14097,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -14119,10 +14123,10 @@
         <v>75</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
@@ -14173,7 +14177,7 @@
         <v>75</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>76</v>
@@ -14202,7 +14206,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -14228,13 +14232,13 @@
         <v>98</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
@@ -14284,7 +14288,7 @@
         <v>75</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>76</v>
@@ -14313,7 +14317,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -14336,13 +14340,13 @@
         <v>85</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -14393,7 +14397,7 @@
         <v>75</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>76</v>
@@ -14422,7 +14426,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -14448,10 +14452,10 @@
         <v>142</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -14502,7 +14506,7 @@
         <v>75</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>76</v>
@@ -14511,7 +14515,7 @@
         <v>84</v>
       </c>
       <c r="AH120" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AI120" t="s" s="2">
         <v>96</v>
@@ -14531,7 +14535,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -14554,13 +14558,13 @@
         <v>75</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
@@ -14611,7 +14615,7 @@
         <v>75</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>76</v>
@@ -14629,7 +14633,7 @@
         <v>75</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>75</v>
@@ -14640,11 +14644,11 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -14663,16 +14667,16 @@
         <v>75</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
@@ -14722,7 +14726,7 @@
         <v>75</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>76</v>
@@ -14734,13 +14738,13 @@
         <v>75</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ122" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>75</v>
@@ -14751,11 +14755,11 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
@@ -14774,19 +14778,19 @@
         <v>85</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>75</v>
@@ -14835,7 +14839,7 @@
         <v>75</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>76</v>
@@ -14847,7 +14851,7 @@
         <v>75</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ123" t="s" s="2">
         <v>75</v>
@@ -14864,7 +14868,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -14890,13 +14894,13 @@
         <v>104</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
@@ -14925,10 +14929,10 @@
         <v>124</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>75</v>
@@ -14946,7 +14950,7 @@
         <v>75</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>76</v>
@@ -14975,7 +14979,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -14998,16 +15002,16 @@
         <v>85</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
@@ -15057,7 +15061,7 @@
         <v>75</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>76</v>
@@ -15086,7 +15090,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -15112,10 +15116,10 @@
         <v>142</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
@@ -15166,7 +15170,7 @@
         <v>75</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>76</v>
@@ -15175,7 +15179,7 @@
         <v>84</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AI126" t="s" s="2">
         <v>96</v>
@@ -15195,7 +15199,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -15218,13 +15222,13 @@
         <v>75</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M127" s="2"/>
       <c r="N127" s="2"/>
@@ -15275,7 +15279,7 @@
         <v>75</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>76</v>
@@ -15293,7 +15297,7 @@
         <v>75</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>75</v>
@@ -15304,11 +15308,11 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
@@ -15327,16 +15331,16 @@
         <v>75</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
@@ -15386,7 +15390,7 @@
         <v>75</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>76</v>
@@ -15398,13 +15402,13 @@
         <v>75</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>75</v>
@@ -15415,11 +15419,11 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -15438,19 +15442,19 @@
         <v>85</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>75</v>
@@ -15499,7 +15503,7 @@
         <v>75</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>76</v>
@@ -15511,7 +15515,7 @@
         <v>75</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ129" t="s" s="2">
         <v>75</v>
@@ -15528,7 +15532,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -15554,10 +15558,10 @@
         <v>104</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" s="2"/>
@@ -15587,10 +15591,10 @@
         <v>124</v>
       </c>
       <c r="X130" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y130" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Z130" t="s" s="2">
         <v>75</v>
@@ -15608,7 +15612,7 @@
         <v>75</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>84</v>
@@ -15637,7 +15641,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -15663,13 +15667,13 @@
         <v>98</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
@@ -15719,7 +15723,7 @@
         <v>75</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>84</v>
@@ -15748,7 +15752,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -15771,13 +15775,13 @@
         <v>85</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M132" s="2"/>
       <c r="N132" s="2"/>
@@ -15828,7 +15832,7 @@
         <v>75</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>76</v>
@@ -15857,7 +15861,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -15883,10 +15887,10 @@
         <v>129</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
@@ -15937,7 +15941,7 @@
         <v>75</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>76</v>
@@ -15966,7 +15970,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -15989,13 +15993,13 @@
         <v>85</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
@@ -16046,7 +16050,7 @@
         <v>75</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>76</v>
@@ -16075,7 +16079,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -16098,13 +16102,13 @@
         <v>85</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M135" s="2"/>
       <c r="N135" s="2"/>
@@ -16155,7 +16159,7 @@
         <v>75</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>76</v>
@@ -16184,7 +16188,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -16210,10 +16214,10 @@
         <v>142</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M136" s="2"/>
       <c r="N136" s="2"/>
@@ -16264,7 +16268,7 @@
         <v>75</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>76</v>
@@ -16273,7 +16277,7 @@
         <v>84</v>
       </c>
       <c r="AH136" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AI136" t="s" s="2">
         <v>96</v>
@@ -16293,7 +16297,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -16316,13 +16320,13 @@
         <v>75</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M137" s="2"/>
       <c r="N137" s="2"/>
@@ -16373,7 +16377,7 @@
         <v>75</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>76</v>
@@ -16391,7 +16395,7 @@
         <v>75</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL137" t="s" s="2">
         <v>75</v>
@@ -16402,11 +16406,11 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -16425,16 +16429,16 @@
         <v>75</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
@@ -16484,7 +16488,7 @@
         <v>75</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>76</v>
@@ -16496,13 +16500,13 @@
         <v>75</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ138" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL138" t="s" s="2">
         <v>75</v>
@@ -16513,11 +16517,11 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
@@ -16536,19 +16540,19 @@
         <v>85</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>75</v>
@@ -16597,7 +16601,7 @@
         <v>75</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>76</v>
@@ -16609,7 +16613,7 @@
         <v>75</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>75</v>
@@ -16626,7 +16630,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -16649,13 +16653,13 @@
         <v>85</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
@@ -16706,7 +16710,7 @@
         <v>75</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>84</v>
@@ -16735,7 +16739,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -16761,10 +16765,10 @@
         <v>98</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
@@ -16815,7 +16819,7 @@
         <v>75</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>76</v>
@@ -16844,7 +16848,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -16867,16 +16871,16 @@
         <v>85</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" t="s" s="2">
@@ -16926,7 +16930,7 @@
         <v>75</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>76</v>
@@ -16955,7 +16959,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -16981,13 +16985,13 @@
         <v>129</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" t="s" s="2">
@@ -17037,7 +17041,7 @@
         <v>75</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>76</v>
@@ -17066,7 +17070,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -17089,16 +17093,16 @@
         <v>85</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" t="s" s="2">
@@ -17148,7 +17152,7 @@
         <v>75</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>76</v>
@@ -17177,7 +17181,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -17200,19 +17204,19 @@
         <v>85</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O145" t="s" s="2">
         <v>75</v>
@@ -17261,7 +17265,7 @@
         <v>75</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:47:29+00:00</t>
+    <t>2022-09-08T16:52:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:52:01+00:00</t>
+    <t>2022-09-08T20:49:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5064" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5064" uniqueCount="289">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T20:49:17+00:00</t>
+    <t>2022-09-08T22:16:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -564,6 +564,9 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>Entry in the bundle - will have a resource or information</t>
@@ -3080,7 +3083,7 @@
         <v>173</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>75</v>
@@ -3095,10 +3098,10 @@
         <v>142</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3137,16 +3140,16 @@
         <v>75</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>172</v>
@@ -3161,7 +3164,7 @@
         <v>75</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>75</v>
@@ -3178,7 +3181,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3287,7 +3290,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3398,7 +3401,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3511,7 +3514,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3537,10 +3540,10 @@
         <v>75</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3591,7 +3594,7 @@
         <v>75</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>76</v>
@@ -3620,7 +3623,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3646,13 +3649,13 @@
         <v>98</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3702,7 +3705,7 @@
         <v>75</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>76</v>
@@ -3731,7 +3734,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3754,13 +3757,13 @@
         <v>85</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3811,7 +3814,7 @@
         <v>75</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>76</v>
@@ -3840,7 +3843,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3866,10 +3869,10 @@
         <v>142</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3920,7 +3923,7 @@
         <v>75</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>76</v>
@@ -3929,7 +3932,7 @@
         <v>84</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>96</v>
@@ -3949,7 +3952,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4058,7 +4061,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4169,7 +4172,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4282,7 +4285,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4308,13 +4311,13 @@
         <v>104</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4343,10 +4346,10 @@
         <v>124</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>75</v>
@@ -4364,7 +4367,7 @@
         <v>75</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>76</v>
@@ -4393,7 +4396,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4416,16 +4419,16 @@
         <v>85</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4475,7 +4478,7 @@
         <v>75</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>76</v>
@@ -4504,7 +4507,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4530,10 +4533,10 @@
         <v>142</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4584,7 +4587,7 @@
         <v>75</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>76</v>
@@ -4593,7 +4596,7 @@
         <v>84</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>96</v>
@@ -4613,7 +4616,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4722,7 +4725,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4833,7 +4836,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4946,7 +4949,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4972,10 +4975,10 @@
         <v>104</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5005,10 +5008,10 @@
         <v>124</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>75</v>
@@ -5026,7 +5029,7 @@
         <v>75</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>84</v>
@@ -5055,7 +5058,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5081,13 +5084,13 @@
         <v>98</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5137,7 +5140,7 @@
         <v>75</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>84</v>
@@ -5166,7 +5169,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5192,10 +5195,10 @@
         <v>147</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5246,7 +5249,7 @@
         <v>75</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>76</v>
@@ -5275,7 +5278,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5301,10 +5304,10 @@
         <v>129</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5355,7 +5358,7 @@
         <v>75</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>76</v>
@@ -5384,7 +5387,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5410,10 +5413,10 @@
         <v>147</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5464,7 +5467,7 @@
         <v>75</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>76</v>
@@ -5493,7 +5496,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5519,10 +5522,10 @@
         <v>147</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5573,7 +5576,7 @@
         <v>75</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>76</v>
@@ -5602,7 +5605,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5628,10 +5631,10 @@
         <v>142</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5682,7 +5685,7 @@
         <v>75</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>76</v>
@@ -5691,7 +5694,7 @@
         <v>84</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>96</v>
@@ -5711,7 +5714,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5820,7 +5823,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5931,7 +5934,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6044,7 +6047,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6070,10 +6073,10 @@
         <v>147</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6124,7 +6127,7 @@
         <v>75</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>84</v>
@@ -6153,7 +6156,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6179,10 +6182,10 @@
         <v>98</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6233,7 +6236,7 @@
         <v>75</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>76</v>
@@ -6262,7 +6265,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6288,13 +6291,13 @@
         <v>147</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6344,7 +6347,7 @@
         <v>75</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>76</v>
@@ -6373,7 +6376,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6399,13 +6402,13 @@
         <v>129</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6455,7 +6458,7 @@
         <v>75</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>76</v>
@@ -6484,7 +6487,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6507,16 +6510,16 @@
         <v>85</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6566,7 +6569,7 @@
         <v>75</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>76</v>
@@ -6598,7 +6601,7 @@
         <v>172</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>75</v>
@@ -6623,10 +6626,10 @@
         <v>142</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6689,7 +6692,7 @@
         <v>75</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>75</v>
@@ -6706,7 +6709,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6815,7 +6818,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6926,7 +6929,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7039,7 +7042,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7065,10 +7068,10 @@
         <v>75</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7119,7 +7122,7 @@
         <v>75</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>76</v>
@@ -7148,7 +7151,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7174,13 +7177,13 @@
         <v>98</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7230,7 +7233,7 @@
         <v>75</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>76</v>
@@ -7259,11 +7262,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7282,13 +7285,13 @@
         <v>75</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7339,7 +7342,7 @@
         <v>75</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>76</v>
@@ -7351,16 +7354,16 @@
         <v>75</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>75</v>
@@ -7368,7 +7371,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7394,10 +7397,10 @@
         <v>142</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7448,7 +7451,7 @@
         <v>75</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>76</v>
@@ -7457,7 +7460,7 @@
         <v>84</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>96</v>
@@ -7477,7 +7480,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7586,7 +7589,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7697,7 +7700,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7810,7 +7813,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7836,13 +7839,13 @@
         <v>104</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -7871,10 +7874,10 @@
         <v>124</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>75</v>
@@ -7892,7 +7895,7 @@
         <v>75</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>76</v>
@@ -7921,7 +7924,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7944,16 +7947,16 @@
         <v>85</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8003,7 +8006,7 @@
         <v>75</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>76</v>
@@ -8032,7 +8035,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8058,10 +8061,10 @@
         <v>142</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8112,7 +8115,7 @@
         <v>75</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>76</v>
@@ -8121,7 +8124,7 @@
         <v>84</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>96</v>
@@ -8141,7 +8144,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8250,7 +8253,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8361,7 +8364,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8474,7 +8477,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8500,10 +8503,10 @@
         <v>104</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8533,10 +8536,10 @@
         <v>124</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>75</v>
@@ -8554,7 +8557,7 @@
         <v>75</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>84</v>
@@ -8583,7 +8586,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8609,13 +8612,13 @@
         <v>98</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -8665,7 +8668,7 @@
         <v>75</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>84</v>
@@ -8694,7 +8697,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8720,10 +8723,10 @@
         <v>147</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8774,7 +8777,7 @@
         <v>75</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>76</v>
@@ -8803,7 +8806,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8829,10 +8832,10 @@
         <v>129</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -8883,7 +8886,7 @@
         <v>75</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>76</v>
@@ -8912,7 +8915,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8938,10 +8941,10 @@
         <v>147</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -8992,7 +8995,7 @@
         <v>75</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>76</v>
@@ -9021,7 +9024,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9047,10 +9050,10 @@
         <v>147</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9101,7 +9104,7 @@
         <v>75</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>76</v>
@@ -9130,7 +9133,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9156,10 +9159,10 @@
         <v>142</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9210,7 +9213,7 @@
         <v>75</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>76</v>
@@ -9219,7 +9222,7 @@
         <v>84</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>96</v>
@@ -9239,7 +9242,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9348,7 +9351,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9459,7 +9462,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9572,7 +9575,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9598,10 +9601,10 @@
         <v>147</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -9652,7 +9655,7 @@
         <v>75</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>84</v>
@@ -9681,7 +9684,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9707,10 +9710,10 @@
         <v>98</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -9761,7 +9764,7 @@
         <v>75</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>76</v>
@@ -9790,7 +9793,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9816,13 +9819,13 @@
         <v>147</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -9872,7 +9875,7 @@
         <v>75</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>76</v>
@@ -9901,7 +9904,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9927,13 +9930,13 @@
         <v>129</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -9983,7 +9986,7 @@
         <v>75</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>76</v>
@@ -10012,7 +10015,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10035,16 +10038,16 @@
         <v>85</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -10094,7 +10097,7 @@
         <v>75</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>76</v>
@@ -10126,7 +10129,7 @@
         <v>172</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C81" t="s" s="2">
         <v>75</v>
@@ -10151,10 +10154,10 @@
         <v>142</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10217,7 +10220,7 @@
         <v>75</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>75</v>
@@ -10234,7 +10237,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10343,7 +10346,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10454,7 +10457,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10567,7 +10570,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10593,10 +10596,10 @@
         <v>75</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -10647,7 +10650,7 @@
         <v>75</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>76</v>
@@ -10676,7 +10679,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10702,13 +10705,13 @@
         <v>98</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -10758,7 +10761,7 @@
         <v>75</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>76</v>
@@ -10787,7 +10790,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -10810,16 +10813,16 @@
         <v>75</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -10869,7 +10872,7 @@
         <v>75</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>76</v>
@@ -10898,7 +10901,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -10924,10 +10927,10 @@
         <v>142</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -10978,7 +10981,7 @@
         <v>75</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>76</v>
@@ -10987,7 +10990,7 @@
         <v>84</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>96</v>
@@ -11007,7 +11010,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11116,7 +11119,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11227,7 +11230,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11340,7 +11343,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11366,13 +11369,13 @@
         <v>104</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -11401,10 +11404,10 @@
         <v>124</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>75</v>
@@ -11422,7 +11425,7 @@
         <v>75</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>76</v>
@@ -11451,7 +11454,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11474,16 +11477,16 @@
         <v>85</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -11533,7 +11536,7 @@
         <v>75</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>76</v>
@@ -11562,7 +11565,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11588,10 +11591,10 @@
         <v>142</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -11642,7 +11645,7 @@
         <v>75</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>76</v>
@@ -11651,7 +11654,7 @@
         <v>84</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>96</v>
@@ -11671,7 +11674,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -11780,7 +11783,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -11891,7 +11894,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12004,7 +12007,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12030,10 +12033,10 @@
         <v>104</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -12063,10 +12066,10 @@
         <v>124</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>75</v>
@@ -12084,7 +12087,7 @@
         <v>75</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>84</v>
@@ -12113,7 +12116,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12139,13 +12142,13 @@
         <v>98</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
@@ -12195,7 +12198,7 @@
         <v>75</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>84</v>
@@ -12224,7 +12227,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12250,10 +12253,10 @@
         <v>147</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -12304,7 +12307,7 @@
         <v>75</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>76</v>
@@ -12333,7 +12336,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12359,10 +12362,10 @@
         <v>129</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -12413,7 +12416,7 @@
         <v>75</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>76</v>
@@ -12442,7 +12445,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -12468,10 +12471,10 @@
         <v>147</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -12522,7 +12525,7 @@
         <v>75</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>76</v>
@@ -12551,7 +12554,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -12577,10 +12580,10 @@
         <v>147</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -12631,7 +12634,7 @@
         <v>75</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>76</v>
@@ -12660,7 +12663,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -12686,10 +12689,10 @@
         <v>142</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -12740,7 +12743,7 @@
         <v>75</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>76</v>
@@ -12749,7 +12752,7 @@
         <v>84</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>96</v>
@@ -12769,7 +12772,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -12878,7 +12881,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -12989,7 +12992,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13102,7 +13105,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13128,10 +13131,10 @@
         <v>147</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -13182,7 +13185,7 @@
         <v>75</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>84</v>
@@ -13211,7 +13214,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13237,10 +13240,10 @@
         <v>98</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
@@ -13291,7 +13294,7 @@
         <v>75</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>76</v>
@@ -13320,7 +13323,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13346,13 +13349,13 @@
         <v>147</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
@@ -13402,7 +13405,7 @@
         <v>75</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>76</v>
@@ -13431,7 +13434,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13457,13 +13460,13 @@
         <v>129</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
@@ -13513,7 +13516,7 @@
         <v>75</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>76</v>
@@ -13542,7 +13545,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -13565,16 +13568,16 @@
         <v>85</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
@@ -13624,7 +13627,7 @@
         <v>75</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>76</v>
@@ -13656,7 +13659,7 @@
         <v>172</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C113" t="s" s="2">
         <v>75</v>
@@ -13681,10 +13684,10 @@
         <v>142</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -13747,7 +13750,7 @@
         <v>75</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>75</v>
@@ -13764,7 +13767,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -13873,7 +13876,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -13984,7 +13987,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -14097,7 +14100,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -14123,10 +14126,10 @@
         <v>75</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
@@ -14177,7 +14180,7 @@
         <v>75</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>76</v>
@@ -14206,7 +14209,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -14232,13 +14235,13 @@
         <v>98</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
@@ -14288,7 +14291,7 @@
         <v>75</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>76</v>
@@ -14317,7 +14320,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -14340,13 +14343,13 @@
         <v>85</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -14397,7 +14400,7 @@
         <v>75</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>76</v>
@@ -14426,7 +14429,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -14452,10 +14455,10 @@
         <v>142</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -14506,7 +14509,7 @@
         <v>75</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>76</v>
@@ -14515,7 +14518,7 @@
         <v>84</v>
       </c>
       <c r="AH120" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AI120" t="s" s="2">
         <v>96</v>
@@ -14535,7 +14538,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -14644,7 +14647,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -14755,7 +14758,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -14868,7 +14871,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -14894,13 +14897,13 @@
         <v>104</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
@@ -14929,10 +14932,10 @@
         <v>124</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>75</v>
@@ -14950,7 +14953,7 @@
         <v>75</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>76</v>
@@ -14979,7 +14982,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -15002,16 +15005,16 @@
         <v>85</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
@@ -15061,7 +15064,7 @@
         <v>75</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>76</v>
@@ -15090,7 +15093,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -15116,10 +15119,10 @@
         <v>142</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
@@ -15170,7 +15173,7 @@
         <v>75</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>76</v>
@@ -15179,7 +15182,7 @@
         <v>84</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AI126" t="s" s="2">
         <v>96</v>
@@ -15199,7 +15202,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -15308,7 +15311,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -15419,7 +15422,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -15532,7 +15535,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -15558,10 +15561,10 @@
         <v>104</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" s="2"/>
@@ -15591,10 +15594,10 @@
         <v>124</v>
       </c>
       <c r="X130" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Y130" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Z130" t="s" s="2">
         <v>75</v>
@@ -15612,7 +15615,7 @@
         <v>75</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>84</v>
@@ -15641,7 +15644,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -15667,13 +15670,13 @@
         <v>98</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
@@ -15723,7 +15726,7 @@
         <v>75</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>84</v>
@@ -15752,7 +15755,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -15778,10 +15781,10 @@
         <v>147</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M132" s="2"/>
       <c r="N132" s="2"/>
@@ -15832,7 +15835,7 @@
         <v>75</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>76</v>
@@ -15861,7 +15864,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -15887,10 +15890,10 @@
         <v>129</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
@@ -15941,7 +15944,7 @@
         <v>75</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>76</v>
@@ -15970,7 +15973,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -15996,10 +15999,10 @@
         <v>147</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
@@ -16050,7 +16053,7 @@
         <v>75</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>76</v>
@@ -16079,7 +16082,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -16105,10 +16108,10 @@
         <v>147</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M135" s="2"/>
       <c r="N135" s="2"/>
@@ -16159,7 +16162,7 @@
         <v>75</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>76</v>
@@ -16188,7 +16191,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -16214,10 +16217,10 @@
         <v>142</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M136" s="2"/>
       <c r="N136" s="2"/>
@@ -16268,7 +16271,7 @@
         <v>75</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>76</v>
@@ -16277,7 +16280,7 @@
         <v>84</v>
       </c>
       <c r="AH136" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AI136" t="s" s="2">
         <v>96</v>
@@ -16297,7 +16300,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -16406,7 +16409,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -16517,7 +16520,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -16630,7 +16633,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -16656,10 +16659,10 @@
         <v>147</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
@@ -16710,7 +16713,7 @@
         <v>75</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>84</v>
@@ -16739,7 +16742,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -16765,10 +16768,10 @@
         <v>98</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
@@ -16819,7 +16822,7 @@
         <v>75</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>76</v>
@@ -16848,7 +16851,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -16874,13 +16877,13 @@
         <v>147</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" t="s" s="2">
@@ -16930,7 +16933,7 @@
         <v>75</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>76</v>
@@ -16959,7 +16962,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -16985,13 +16988,13 @@
         <v>129</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" t="s" s="2">
@@ -17041,7 +17044,7 @@
         <v>75</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>76</v>
@@ -17070,7 +17073,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -17093,16 +17096,16 @@
         <v>85</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" t="s" s="2">
@@ -17152,7 +17155,7 @@
         <v>75</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>76</v>
@@ -17181,7 +17184,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -17204,19 +17207,19 @@
         <v>85</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O145" t="s" s="2">
         <v>75</v>
@@ -17265,7 +17268,7 @@
         <v>75</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T22:16:21+00:00</t>
+    <t>2022-09-20T22:52:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-20T22:52:25+00:00</t>
+    <t>2022-09-21T21:21:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-21T21:21:33+00:00</t>
+    <t>2022-09-22T20:32:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-22T20:32:21+00:00</t>
+    <t>2022-10-04T16:21:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-04T16:21:03+00:00</t>
+    <t>2022-10-05T16:43:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-05T16:43:24+00:00</t>
+    <t>2022-10-05T17:01:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-14T20:19:28+00:00</t>
+    <t>2022-11-09T18:06:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-09T18:06:00+00:00</t>
+    <t>2022-11-09T18:16:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-09T18:16:12+00:00</t>
+    <t>2022-11-14T18:26:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T18:26:34+00:00</t>
+    <t>2022-11-14T19:03:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T19:03:53+00:00</t>
+    <t>2022-11-30T18:54:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T18:54:03+00:00</t>
+    <t>2022-11-30T20:29:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T20:29:42+00:00</t>
+    <t>2022-12-01T22:48:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5209" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5209" uniqueCount="386">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-19T23:56:39+00:00</t>
+    <t>2023-01-30T21:25:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -253,6 +253,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>Contains a collection of resources</t>
@@ -1731,13 +1735,13 @@
         <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1803,13 +1807,13 @@
         <v>76</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>76</v>
@@ -1817,10 +1821,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1831,7 +1835,7 @@
         <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>76</v>
@@ -1840,19 +1844,19 @@
         <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1902,13 +1906,13 @@
         <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>76</v>
@@ -1931,10 +1935,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1945,7 +1949,7 @@
         <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>76</v>
@@ -1954,16 +1958,16 @@
         <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2014,19 +2018,19 @@
         <v>76</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>76</v>
@@ -2043,10 +2047,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2057,28 +2061,28 @@
         <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2128,19 +2132,19 @@
         <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>76</v>
@@ -2157,10 +2161,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2171,7 +2175,7 @@
         <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>76</v>
@@ -2183,16 +2187,16 @@
         <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2218,13 +2222,13 @@
         <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>76</v>
@@ -2242,19 +2246,19 @@
         <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>76</v>
@@ -2271,10 +2275,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2285,7 +2289,7 @@
         <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>76</v>
@@ -2294,19 +2298,19 @@
         <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2356,19 +2360,19 @@
         <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>76</v>
@@ -2377,18 +2381,18 @@
         <v>76</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2396,31 +2400,31 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2428,7 +2432,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>76</v>
@@ -2446,13 +2450,13 @@
         <v>76</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AA8" t="s" s="2">
         <v>76</v>
@@ -2470,19 +2474,19 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>76</v>
@@ -2494,15 +2498,15 @@
         <v>76</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2513,7 +2517,7 @@
         <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>76</v>
@@ -2522,19 +2526,19 @@
         <v>76</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2584,19 +2588,19 @@
         <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>76</v>
@@ -2605,18 +2609,18 @@
         <v>76</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2627,7 +2631,7 @@
         <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>76</v>
@@ -2636,19 +2640,19 @@
         <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2698,19 +2702,19 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>76</v>
@@ -2727,10 +2731,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2750,19 +2754,19 @@
         <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2812,7 +2816,7 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -2824,7 +2828,7 @@
         <v>76</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>76</v>
@@ -2841,10 +2845,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2855,7 +2859,7 @@
         <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>76</v>
@@ -2867,13 +2871,13 @@
         <v>76</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2924,13 +2928,13 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>76</v>
@@ -2942,7 +2946,7 @@
         <v>76</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>76</v>
@@ -2953,14 +2957,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -2979,16 +2983,16 @@
         <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3038,7 +3042,7 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -3050,13 +3054,13 @@
         <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>76</v>
@@ -3067,14 +3071,14 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3087,25 +3091,25 @@
         <v>76</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>76</v>
@@ -3154,7 +3158,7 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3166,13 +3170,13 @@
         <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>76</v>
@@ -3183,10 +3187,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3194,10 +3198,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>76</v>
@@ -3206,16 +3210,16 @@
         <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3266,19 +3270,19 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>76</v>
@@ -3295,10 +3299,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3306,10 +3310,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>76</v>
@@ -3318,16 +3322,16 @@
         <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3378,19 +3382,19 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>76</v>
@@ -3407,10 +3411,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3418,10 +3422,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>76</v>
@@ -3430,16 +3434,16 @@
         <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3478,19 +3482,19 @@
         <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3519,10 +3523,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3533,7 +3537,7 @@
         <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>76</v>
@@ -3545,13 +3549,13 @@
         <v>76</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3602,13 +3606,13 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>76</v>
@@ -3620,7 +3624,7 @@
         <v>76</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>76</v>
@@ -3631,14 +3635,14 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3657,16 +3661,16 @@
         <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3716,7 +3720,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3728,13 +3732,13 @@
         <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>76</v>
@@ -3745,14 +3749,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3765,25 +3769,25 @@
         <v>76</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>76</v>
@@ -3832,7 +3836,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3844,13 +3848,13 @@
         <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>76</v>
@@ -3861,10 +3865,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3884,16 +3888,16 @@
         <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3944,7 +3948,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3956,7 +3960,7 @@
         <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>76</v>
@@ -3973,10 +3977,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3984,31 +3988,31 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4058,19 +4062,19 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>76</v>
@@ -4087,10 +4091,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4098,28 +4102,28 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4170,13 +4174,13 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>76</v>
@@ -4199,10 +4203,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4213,7 +4217,7 @@
         <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>76</v>
@@ -4222,16 +4226,16 @@
         <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4282,19 +4286,19 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>76</v>
@@ -4311,10 +4315,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4325,7 +4329,7 @@
         <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>76</v>
@@ -4337,13 +4341,13 @@
         <v>76</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4394,13 +4398,13 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>76</v>
@@ -4412,7 +4416,7 @@
         <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>76</v>
@@ -4423,14 +4427,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4449,16 +4453,16 @@
         <v>76</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4508,7 +4512,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4520,13 +4524,13 @@
         <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>76</v>
@@ -4537,14 +4541,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4557,25 +4561,25 @@
         <v>76</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>76</v>
@@ -4624,7 +4628,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4636,13 +4640,13 @@
         <v>76</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>76</v>
@@ -4653,10 +4657,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4667,7 +4671,7 @@
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>76</v>
@@ -4676,19 +4680,19 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4714,13 +4718,13 @@
         <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>76</v>
@@ -4738,19 +4742,19 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>76</v>
@@ -4767,10 +4771,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4781,7 +4785,7 @@
         <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>76</v>
@@ -4790,19 +4794,19 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4852,19 +4856,19 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>76</v>
@@ -4881,10 +4885,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4895,25 +4899,25 @@
         <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4964,19 +4968,19 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>76</v>
@@ -4993,10 +4997,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5007,7 +5011,7 @@
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>76</v>
@@ -5019,13 +5023,13 @@
         <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5076,13 +5080,13 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>76</v>
@@ -5094,7 +5098,7 @@
         <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>76</v>
@@ -5105,14 +5109,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5131,16 +5135,16 @@
         <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5190,7 +5194,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5202,13 +5206,13 @@
         <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>76</v>
@@ -5219,14 +5223,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5239,25 +5243,25 @@
         <v>76</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -5306,7 +5310,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5318,13 +5322,13 @@
         <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>76</v>
@@ -5335,10 +5339,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5346,10 +5350,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>76</v>
@@ -5358,16 +5362,16 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5394,13 +5398,13 @@
         <v>76</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>76</v>
@@ -5418,19 +5422,19 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>76</v>
@@ -5447,10 +5451,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5458,10 +5462,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>76</v>
@@ -5470,19 +5474,19 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5532,19 +5536,19 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>76</v>
@@ -5561,10 +5565,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5575,7 +5579,7 @@
         <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>76</v>
@@ -5584,16 +5588,16 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5644,19 +5648,19 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>76</v>
@@ -5673,10 +5677,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5687,7 +5691,7 @@
         <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>76</v>
@@ -5696,16 +5700,16 @@
         <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5756,19 +5760,19 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>76</v>
@@ -5785,10 +5789,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5799,7 +5803,7 @@
         <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>76</v>
@@ -5808,16 +5812,16 @@
         <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5868,19 +5872,19 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>76</v>
@@ -5897,10 +5901,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5911,7 +5915,7 @@
         <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>76</v>
@@ -5920,16 +5924,16 @@
         <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5980,19 +5984,19 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>76</v>
@@ -6009,10 +6013,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6023,7 +6027,7 @@
         <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>76</v>
@@ -6032,16 +6036,16 @@
         <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6092,19 +6096,19 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>76</v>
@@ -6121,10 +6125,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6135,7 +6139,7 @@
         <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>76</v>
@@ -6147,13 +6151,13 @@
         <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6204,13 +6208,13 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>76</v>
@@ -6222,7 +6226,7 @@
         <v>76</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>76</v>
@@ -6233,14 +6237,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6259,16 +6263,16 @@
         <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6318,7 +6322,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6330,13 +6334,13 @@
         <v>76</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>76</v>
@@ -6347,14 +6351,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6367,25 +6371,25 @@
         <v>76</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>76</v>
@@ -6434,7 +6438,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6446,13 +6450,13 @@
         <v>76</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>76</v>
@@ -6463,10 +6467,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6474,10 +6478,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>76</v>
@@ -6486,16 +6490,16 @@
         <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6546,19 +6550,19 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>76</v>
@@ -6575,10 +6579,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6589,7 +6593,7 @@
         <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>76</v>
@@ -6598,16 +6602,16 @@
         <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6658,19 +6662,19 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>76</v>
@@ -6687,10 +6691,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6701,7 +6705,7 @@
         <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>76</v>
@@ -6710,19 +6714,19 @@
         <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6772,19 +6776,19 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>76</v>
@@ -6801,10 +6805,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6815,7 +6819,7 @@
         <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>76</v>
@@ -6824,19 +6828,19 @@
         <v>76</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6886,19 +6890,19 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>76</v>
@@ -6915,10 +6919,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6929,7 +6933,7 @@
         <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>76</v>
@@ -6938,19 +6942,19 @@
         <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7000,13 +7004,13 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>76</v>
@@ -7029,41 +7033,41 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7114,7 +7118,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7126,7 +7130,7 @@
         <v>76</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>76</v>
@@ -7143,10 +7147,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7157,7 +7161,7 @@
         <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>76</v>
@@ -7169,13 +7173,13 @@
         <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7226,13 +7230,13 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>76</v>
@@ -7244,7 +7248,7 @@
         <v>76</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>76</v>
@@ -7255,14 +7259,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7281,16 +7285,16 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7340,7 +7344,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7352,13 +7356,13 @@
         <v>76</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>76</v>
@@ -7369,14 +7373,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7389,25 +7393,25 @@
         <v>76</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>76</v>
@@ -7456,7 +7460,7 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7468,13 +7472,13 @@
         <v>76</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>76</v>
@@ -7485,10 +7489,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7508,16 +7512,16 @@
         <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7568,7 +7572,7 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -7580,7 +7584,7 @@
         <v>76</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>76</v>
@@ -7597,10 +7601,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7611,7 +7615,7 @@
         <v>77</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>76</v>
@@ -7620,19 +7624,19 @@
         <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7682,19 +7686,19 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>76</v>
@@ -7711,21 +7715,21 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>76</v>
@@ -7737,13 +7741,13 @@
         <v>76</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7794,28 +7798,28 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>76</v>
@@ -7823,10 +7827,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7837,7 +7841,7 @@
         <v>77</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>76</v>
@@ -7846,16 +7850,16 @@
         <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7906,19 +7910,19 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>76</v>
@@ -7935,10 +7939,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7949,7 +7953,7 @@
         <v>77</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>76</v>
@@ -7961,13 +7965,13 @@
         <v>76</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8018,13 +8022,13 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>76</v>
@@ -8036,7 +8040,7 @@
         <v>76</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>76</v>
@@ -8047,14 +8051,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8073,16 +8077,16 @@
         <v>76</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8132,7 +8136,7 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
@@ -8144,13 +8148,13 @@
         <v>76</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>76</v>
@@ -8161,14 +8165,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8181,25 +8185,25 @@
         <v>76</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>76</v>
@@ -8248,7 +8252,7 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -8260,13 +8264,13 @@
         <v>76</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>76</v>
@@ -8277,10 +8281,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8291,7 +8295,7 @@
         <v>77</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>76</v>
@@ -8300,19 +8304,19 @@
         <v>76</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8338,13 +8342,13 @@
         <v>76</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>76</v>
@@ -8362,19 +8366,19 @@
         <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>76</v>
@@ -8391,10 +8395,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8405,7 +8409,7 @@
         <v>77</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>76</v>
@@ -8414,19 +8418,19 @@
         <v>76</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8476,19 +8480,19 @@
         <v>76</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>76</v>
@@ -8505,10 +8509,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8519,7 +8523,7 @@
         <v>77</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>76</v>
@@ -8528,16 +8532,16 @@
         <v>76</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8588,19 +8592,19 @@
         <v>76</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>76</v>
@@ -8617,10 +8621,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8631,7 +8635,7 @@
         <v>77</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>76</v>
@@ -8643,13 +8647,13 @@
         <v>76</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8700,13 +8704,13 @@
         <v>76</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>76</v>
@@ -8718,7 +8722,7 @@
         <v>76</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>76</v>
@@ -8729,14 +8733,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -8755,16 +8759,16 @@
         <v>76</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -8814,7 +8818,7 @@
         <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -8826,13 +8830,13 @@
         <v>76</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>76</v>
@@ -8843,14 +8847,14 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -8863,25 +8867,25 @@
         <v>76</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>76</v>
@@ -8930,7 +8934,7 @@
         <v>76</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
@@ -8942,13 +8946,13 @@
         <v>76</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>76</v>
@@ -8959,10 +8963,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8970,10 +8974,10 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>76</v>
@@ -8982,16 +8986,16 @@
         <v>76</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9018,13 +9022,13 @@
         <v>76</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>76</v>
@@ -9042,19 +9046,19 @@
         <v>76</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>76</v>
@@ -9071,10 +9075,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9082,10 +9086,10 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>76</v>
@@ -9094,19 +9098,19 @@
         <v>76</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9156,19 +9160,19 @@
         <v>76</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>76</v>
@@ -9185,10 +9189,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9199,7 +9203,7 @@
         <v>77</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>76</v>
@@ -9208,16 +9212,16 @@
         <v>76</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9268,19 +9272,19 @@
         <v>76</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>76</v>
@@ -9297,10 +9301,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9311,7 +9315,7 @@
         <v>77</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>76</v>
@@ -9320,16 +9324,16 @@
         <v>76</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9380,19 +9384,19 @@
         <v>76</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>76</v>
@@ -9409,10 +9413,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9423,7 +9427,7 @@
         <v>77</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>76</v>
@@ -9432,16 +9436,16 @@
         <v>76</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9492,19 +9496,19 @@
         <v>76</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>76</v>
@@ -9521,10 +9525,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9535,7 +9539,7 @@
         <v>77</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>76</v>
@@ -9544,16 +9548,16 @@
         <v>76</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9604,19 +9608,19 @@
         <v>76</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>76</v>
@@ -9633,10 +9637,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9647,7 +9651,7 @@
         <v>77</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>76</v>
@@ -9656,16 +9660,16 @@
         <v>76</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9716,19 +9720,19 @@
         <v>76</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>76</v>
@@ -9745,10 +9749,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9759,7 +9763,7 @@
         <v>77</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>76</v>
@@ -9771,13 +9775,13 @@
         <v>76</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -9828,13 +9832,13 @@
         <v>76</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>76</v>
@@ -9846,7 +9850,7 @@
         <v>76</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>76</v>
@@ -9857,14 +9861,14 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -9883,16 +9887,16 @@
         <v>76</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -9942,7 +9946,7 @@
         <v>76</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
@@ -9954,13 +9958,13 @@
         <v>76</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>76</v>
@@ -9971,14 +9975,14 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -9991,25 +9995,25 @@
         <v>76</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>76</v>
@@ -10058,7 +10062,7 @@
         <v>76</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
@@ -10070,13 +10074,13 @@
         <v>76</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>76</v>
@@ -10087,10 +10091,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10098,10 +10102,10 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>76</v>
@@ -10110,16 +10114,16 @@
         <v>76</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10170,19 +10174,19 @@
         <v>76</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>76</v>
@@ -10199,10 +10203,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10213,7 +10217,7 @@
         <v>77</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>76</v>
@@ -10222,16 +10226,16 @@
         <v>76</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10282,19 +10286,19 @@
         <v>76</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>76</v>
@@ -10311,10 +10315,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10325,7 +10329,7 @@
         <v>77</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>76</v>
@@ -10334,19 +10338,19 @@
         <v>76</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -10396,19 +10400,19 @@
         <v>76</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>76</v>
@@ -10425,10 +10429,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10439,7 +10443,7 @@
         <v>77</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>76</v>
@@ -10448,19 +10452,19 @@
         <v>76</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -10510,19 +10514,19 @@
         <v>76</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>76</v>
@@ -10539,10 +10543,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10553,7 +10557,7 @@
         <v>77</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>76</v>
@@ -10562,19 +10566,19 @@
         <v>76</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -10624,13 +10628,13 @@
         <v>76</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>76</v>
@@ -10653,41 +10657,41 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -10738,7 +10742,7 @@
         <v>76</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>77</v>
@@ -10750,7 +10754,7 @@
         <v>76</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>76</v>
@@ -10767,10 +10771,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10781,7 +10785,7 @@
         <v>77</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>76</v>
@@ -10793,13 +10797,13 @@
         <v>76</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -10850,13 +10854,13 @@
         <v>76</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>76</v>
@@ -10868,7 +10872,7 @@
         <v>76</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>76</v>
@@ -10879,14 +10883,14 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -10905,16 +10909,16 @@
         <v>76</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -10964,7 +10968,7 @@
         <v>76</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>77</v>
@@ -10976,13 +10980,13 @@
         <v>76</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>76</v>
@@ -10993,14 +10997,14 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -11013,25 +11017,25 @@
         <v>76</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>76</v>
@@ -11080,7 +11084,7 @@
         <v>76</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>77</v>
@@ -11092,13 +11096,13 @@
         <v>76</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>76</v>
@@ -11109,10 +11113,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11132,16 +11136,16 @@
         <v>76</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K85" t="s" s="2">
         <v>76</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11192,7 +11196,7 @@
         <v>76</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>77</v>
@@ -11204,7 +11208,7 @@
         <v>76</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>76</v>
@@ -11221,10 +11225,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11235,7 +11239,7 @@
         <v>77</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>76</v>
@@ -11244,19 +11248,19 @@
         <v>76</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -11306,19 +11310,19 @@
         <v>76</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>76</v>
@@ -11335,10 +11339,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11349,7 +11353,7 @@
         <v>77</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>76</v>
@@ -11361,16 +11365,16 @@
         <v>76</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -11420,13 +11424,13 @@
         <v>76</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>76</v>
@@ -11435,10 +11439,10 @@
         <v>76</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>76</v>
@@ -11449,10 +11453,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11463,7 +11467,7 @@
         <v>77</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>76</v>
@@ -11472,16 +11476,16 @@
         <v>76</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -11532,19 +11536,19 @@
         <v>76</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>76</v>
@@ -11561,10 +11565,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11575,7 +11579,7 @@
         <v>77</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>76</v>
@@ -11587,13 +11591,13 @@
         <v>76</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -11644,13 +11648,13 @@
         <v>76</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>76</v>
@@ -11662,7 +11666,7 @@
         <v>76</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>76</v>
@@ -11673,14 +11677,14 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -11699,16 +11703,16 @@
         <v>76</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -11758,7 +11762,7 @@
         <v>76</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>77</v>
@@ -11770,13 +11774,13 @@
         <v>76</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>76</v>
@@ -11787,14 +11791,14 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -11807,25 +11811,25 @@
         <v>76</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>76</v>
@@ -11874,7 +11878,7 @@
         <v>76</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>77</v>
@@ -11886,13 +11890,13 @@
         <v>76</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>76</v>
@@ -11903,10 +11907,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11917,7 +11921,7 @@
         <v>77</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>76</v>
@@ -11926,19 +11930,19 @@
         <v>76</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -11964,13 +11968,13 @@
         <v>76</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>76</v>
@@ -11988,19 +11992,19 @@
         <v>76</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>76</v>
@@ -12017,10 +12021,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12031,7 +12035,7 @@
         <v>77</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>76</v>
@@ -12040,19 +12044,19 @@
         <v>76</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -12102,19 +12106,19 @@
         <v>76</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>76</v>
@@ -12131,10 +12135,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12145,7 +12149,7 @@
         <v>77</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>76</v>
@@ -12154,16 +12158,16 @@
         <v>76</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -12214,19 +12218,19 @@
         <v>76</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>76</v>
@@ -12243,10 +12247,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12257,7 +12261,7 @@
         <v>77</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>76</v>
@@ -12269,13 +12273,13 @@
         <v>76</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -12326,13 +12330,13 @@
         <v>76</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>76</v>
@@ -12344,7 +12348,7 @@
         <v>76</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>76</v>
@@ -12355,14 +12359,14 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -12381,16 +12385,16 @@
         <v>76</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -12440,7 +12444,7 @@
         <v>76</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>77</v>
@@ -12452,13 +12456,13 @@
         <v>76</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>76</v>
@@ -12469,14 +12473,14 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -12489,25 +12493,25 @@
         <v>76</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>76</v>
@@ -12556,7 +12560,7 @@
         <v>76</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>77</v>
@@ -12568,13 +12572,13 @@
         <v>76</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>76</v>
@@ -12585,10 +12589,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -12596,10 +12600,10 @@
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>76</v>
@@ -12608,16 +12612,16 @@
         <v>76</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -12644,13 +12648,13 @@
         <v>76</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>76</v>
@@ -12668,19 +12672,19 @@
         <v>76</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>76</v>
@@ -12697,10 +12701,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12708,10 +12712,10 @@
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>76</v>
@@ -12720,19 +12724,19 @@
         <v>76</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -12782,19 +12786,19 @@
         <v>76</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>76</v>
@@ -12811,10 +12815,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -12825,7 +12829,7 @@
         <v>77</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>76</v>
@@ -12834,16 +12838,16 @@
         <v>76</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -12894,19 +12898,19 @@
         <v>76</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>76</v>
@@ -12923,10 +12927,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -12937,7 +12941,7 @@
         <v>77</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>76</v>
@@ -12946,16 +12950,16 @@
         <v>76</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -13006,19 +13010,19 @@
         <v>76</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>76</v>
@@ -13035,10 +13039,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13049,7 +13053,7 @@
         <v>77</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>76</v>
@@ -13058,16 +13062,16 @@
         <v>76</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -13118,19 +13122,19 @@
         <v>76</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>76</v>
@@ -13147,10 +13151,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13161,7 +13165,7 @@
         <v>77</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>76</v>
@@ -13170,16 +13174,16 @@
         <v>76</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -13230,19 +13234,19 @@
         <v>76</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>76</v>
@@ -13259,10 +13263,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13273,7 +13277,7 @@
         <v>77</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>76</v>
@@ -13282,16 +13286,16 @@
         <v>76</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -13342,19 +13346,19 @@
         <v>76</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>76</v>
@@ -13371,10 +13375,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -13385,7 +13389,7 @@
         <v>77</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>76</v>
@@ -13397,13 +13401,13 @@
         <v>76</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -13454,13 +13458,13 @@
         <v>76</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>76</v>
@@ -13472,7 +13476,7 @@
         <v>76</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>76</v>
@@ -13483,14 +13487,14 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -13509,16 +13513,16 @@
         <v>76</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -13568,7 +13572,7 @@
         <v>76</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>77</v>
@@ -13580,13 +13584,13 @@
         <v>76</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>76</v>
@@ -13597,14 +13601,14 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
@@ -13617,25 +13621,25 @@
         <v>76</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>76</v>
@@ -13684,7 +13688,7 @@
         <v>76</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>77</v>
@@ -13696,13 +13700,13 @@
         <v>76</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>76</v>
@@ -13713,10 +13717,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -13724,10 +13728,10 @@
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>76</v>
@@ -13736,16 +13740,16 @@
         <v>76</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -13796,19 +13800,19 @@
         <v>76</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>76</v>
@@ -13825,10 +13829,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -13839,7 +13843,7 @@
         <v>77</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>76</v>
@@ -13848,16 +13852,16 @@
         <v>76</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -13908,19 +13912,19 @@
         <v>76</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>76</v>
@@ -13937,10 +13941,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -13951,7 +13955,7 @@
         <v>77</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>76</v>
@@ -13960,19 +13964,19 @@
         <v>76</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
@@ -14022,19 +14026,19 @@
         <v>76</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>76</v>
@@ -14051,10 +14055,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -14065,7 +14069,7 @@
         <v>77</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>76</v>
@@ -14074,19 +14078,19 @@
         <v>76</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -14136,19 +14140,19 @@
         <v>76</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>76</v>
@@ -14165,10 +14169,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -14179,7 +14183,7 @@
         <v>77</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>76</v>
@@ -14188,19 +14192,19 @@
         <v>76</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
@@ -14250,13 +14254,13 @@
         <v>76</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>76</v>
@@ -14279,13 +14283,13 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D113" t="s" s="2">
         <v>76</v>
@@ -14295,25 +14299,25 @@
         <v>77</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H113" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I113" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -14364,7 +14368,7 @@
         <v>76</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>77</v>
@@ -14376,7 +14380,7 @@
         <v>76</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>76</v>
@@ -14393,10 +14397,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -14407,7 +14411,7 @@
         <v>77</v>
       </c>
       <c r="G114" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H114" t="s" s="2">
         <v>76</v>
@@ -14419,13 +14423,13 @@
         <v>76</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
@@ -14476,13 +14480,13 @@
         <v>76</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI114" t="s" s="2">
         <v>76</v>
@@ -14494,7 +14498,7 @@
         <v>76</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>76</v>
@@ -14505,14 +14509,14 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
@@ -14531,16 +14535,16 @@
         <v>76</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
@@ -14590,7 +14594,7 @@
         <v>76</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>77</v>
@@ -14602,13 +14606,13 @@
         <v>76</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>76</v>
@@ -14619,14 +14623,14 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
@@ -14639,25 +14643,25 @@
         <v>76</v>
       </c>
       <c r="I116" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O116" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>76</v>
@@ -14706,7 +14710,7 @@
         <v>76</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>77</v>
@@ -14718,13 +14722,13 @@
         <v>76</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>76</v>
@@ -14735,10 +14739,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -14758,16 +14762,16 @@
         <v>76</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K117" t="s" s="2">
         <v>76</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -14818,7 +14822,7 @@
         <v>76</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>77</v>
@@ -14830,7 +14834,7 @@
         <v>76</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK117" t="s" s="2">
         <v>76</v>
@@ -14847,10 +14851,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -14861,7 +14865,7 @@
         <v>77</v>
       </c>
       <c r="G118" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H118" t="s" s="2">
         <v>76</v>
@@ -14870,19 +14874,19 @@
         <v>76</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O118" s="2"/>
       <c r="P118" t="s" s="2">
@@ -14932,19 +14936,19 @@
         <v>76</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI118" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>76</v>
@@ -14961,10 +14965,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -14975,7 +14979,7 @@
         <v>77</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H119" t="s" s="2">
         <v>76</v>
@@ -14984,16 +14988,16 @@
         <v>76</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -15044,13 +15048,13 @@
         <v>76</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI119" t="s" s="2">
         <v>76</v>
@@ -15073,10 +15077,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -15087,7 +15091,7 @@
         <v>77</v>
       </c>
       <c r="G120" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H120" t="s" s="2">
         <v>76</v>
@@ -15096,16 +15100,16 @@
         <v>76</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
@@ -15156,19 +15160,19 @@
         <v>76</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH120" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>76</v>
@@ -15185,10 +15189,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -15199,7 +15203,7 @@
         <v>77</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H121" t="s" s="2">
         <v>76</v>
@@ -15211,13 +15215,13 @@
         <v>76</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" s="2"/>
@@ -15268,13 +15272,13 @@
         <v>76</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI121" t="s" s="2">
         <v>76</v>
@@ -15286,7 +15290,7 @@
         <v>76</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>76</v>
@@ -15297,14 +15301,14 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
@@ -15323,16 +15327,16 @@
         <v>76</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O122" s="2"/>
       <c r="P122" t="s" s="2">
@@ -15382,7 +15386,7 @@
         <v>76</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>77</v>
@@ -15394,13 +15398,13 @@
         <v>76</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>76</v>
@@ -15411,14 +15415,14 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
@@ -15431,25 +15435,25 @@
         <v>76</v>
       </c>
       <c r="I123" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O123" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>76</v>
@@ -15498,7 +15502,7 @@
         <v>76</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>77</v>
@@ -15510,13 +15514,13 @@
         <v>76</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>76</v>
@@ -15527,10 +15531,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -15541,7 +15545,7 @@
         <v>77</v>
       </c>
       <c r="G124" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H124" t="s" s="2">
         <v>76</v>
@@ -15550,19 +15554,19 @@
         <v>76</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O124" s="2"/>
       <c r="P124" t="s" s="2">
@@ -15588,13 +15592,13 @@
         <v>76</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Z124" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AA124" t="s" s="2">
         <v>76</v>
@@ -15612,19 +15616,19 @@
         <v>76</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI124" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK124" t="s" s="2">
         <v>76</v>
@@ -15641,10 +15645,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -15655,7 +15659,7 @@
         <v>77</v>
       </c>
       <c r="G125" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H125" t="s" s="2">
         <v>76</v>
@@ -15664,19 +15668,19 @@
         <v>76</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
@@ -15726,19 +15730,19 @@
         <v>76</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH125" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI125" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK125" t="s" s="2">
         <v>76</v>
@@ -15755,10 +15759,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -15769,7 +15773,7 @@
         <v>77</v>
       </c>
       <c r="G126" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H126" t="s" s="2">
         <v>76</v>
@@ -15778,16 +15782,16 @@
         <v>76</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
@@ -15838,19 +15842,19 @@
         <v>76</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK126" t="s" s="2">
         <v>76</v>
@@ -15867,10 +15871,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -15881,7 +15885,7 @@
         <v>77</v>
       </c>
       <c r="G127" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H127" t="s" s="2">
         <v>76</v>
@@ -15893,13 +15897,13 @@
         <v>76</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
@@ -15950,13 +15954,13 @@
         <v>76</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH127" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI127" t="s" s="2">
         <v>76</v>
@@ -15968,7 +15972,7 @@
         <v>76</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>76</v>
@@ -15979,14 +15983,14 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128" t="s" s="2">
@@ -16005,16 +16009,16 @@
         <v>76</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O128" s="2"/>
       <c r="P128" t="s" s="2">
@@ -16064,7 +16068,7 @@
         <v>76</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>77</v>
@@ -16076,13 +16080,13 @@
         <v>76</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK128" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM128" t="s" s="2">
         <v>76</v>
@@ -16093,14 +16097,14 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" t="s" s="2">
@@ -16113,25 +16117,25 @@
         <v>76</v>
       </c>
       <c r="I129" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O129" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>76</v>
@@ -16180,7 +16184,7 @@
         <v>76</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>77</v>
@@ -16192,13 +16196,13 @@
         <v>76</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK129" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM129" t="s" s="2">
         <v>76</v>
@@ -16209,10 +16213,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -16220,10 +16224,10 @@
       </c>
       <c r="E130" s="2"/>
       <c r="F130" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G130" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H130" t="s" s="2">
         <v>76</v>
@@ -16232,16 +16236,16 @@
         <v>76</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
@@ -16268,13 +16272,13 @@
         <v>76</v>
       </c>
       <c r="X130" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Y130" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Z130" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AA130" t="s" s="2">
         <v>76</v>
@@ -16292,19 +16296,19 @@
         <v>76</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH130" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI130" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK130" t="s" s="2">
         <v>76</v>
@@ -16321,10 +16325,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -16332,10 +16336,10 @@
       </c>
       <c r="E131" s="2"/>
       <c r="F131" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G131" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H131" t="s" s="2">
         <v>76</v>
@@ -16344,19 +16348,19 @@
         <v>76</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O131" s="2"/>
       <c r="P131" t="s" s="2">
@@ -16406,19 +16410,19 @@
         <v>76</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH131" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI131" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK131" t="s" s="2">
         <v>76</v>
@@ -16435,10 +16439,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -16449,7 +16453,7 @@
         <v>77</v>
       </c>
       <c r="G132" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H132" t="s" s="2">
         <v>76</v>
@@ -16458,16 +16462,16 @@
         <v>76</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" s="2"/>
@@ -16518,19 +16522,19 @@
         <v>76</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH132" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI132" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK132" t="s" s="2">
         <v>76</v>
@@ -16547,10 +16551,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -16561,7 +16565,7 @@
         <v>77</v>
       </c>
       <c r="G133" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H133" t="s" s="2">
         <v>76</v>
@@ -16570,16 +16574,16 @@
         <v>76</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" s="2"/>
@@ -16630,19 +16634,19 @@
         <v>76</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH133" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI133" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ133" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK133" t="s" s="2">
         <v>76</v>
@@ -16659,10 +16663,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -16673,7 +16677,7 @@
         <v>77</v>
       </c>
       <c r="G134" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H134" t="s" s="2">
         <v>76</v>
@@ -16682,16 +16686,16 @@
         <v>76</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" s="2"/>
@@ -16742,19 +16746,19 @@
         <v>76</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH134" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI134" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ134" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK134" t="s" s="2">
         <v>76</v>
@@ -16771,10 +16775,10 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -16785,7 +16789,7 @@
         <v>77</v>
       </c>
       <c r="G135" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H135" t="s" s="2">
         <v>76</v>
@@ -16794,16 +16798,16 @@
         <v>76</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -16854,19 +16858,19 @@
         <v>76</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH135" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI135" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK135" t="s" s="2">
         <v>76</v>
@@ -16883,10 +16887,10 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -16897,7 +16901,7 @@
         <v>77</v>
       </c>
       <c r="G136" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H136" t="s" s="2">
         <v>76</v>
@@ -16906,16 +16910,16 @@
         <v>76</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" s="2"/>
@@ -16966,19 +16970,19 @@
         <v>76</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH136" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK136" t="s" s="2">
         <v>76</v>
@@ -16995,10 +16999,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -17009,7 +17013,7 @@
         <v>77</v>
       </c>
       <c r="G137" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H137" t="s" s="2">
         <v>76</v>
@@ -17021,13 +17025,13 @@
         <v>76</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
@@ -17078,13 +17082,13 @@
         <v>76</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH137" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI137" t="s" s="2">
         <v>76</v>
@@ -17096,7 +17100,7 @@
         <v>76</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM137" t="s" s="2">
         <v>76</v>
@@ -17107,14 +17111,14 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138" t="s" s="2">
@@ -17133,16 +17137,16 @@
         <v>76</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O138" s="2"/>
       <c r="P138" t="s" s="2">
@@ -17192,7 +17196,7 @@
         <v>76</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>77</v>
@@ -17204,13 +17208,13 @@
         <v>76</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK138" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM138" t="s" s="2">
         <v>76</v>
@@ -17221,14 +17225,14 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139" t="s" s="2">
@@ -17241,25 +17245,25 @@
         <v>76</v>
       </c>
       <c r="I139" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O139" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>76</v>
@@ -17308,7 +17312,7 @@
         <v>76</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>77</v>
@@ -17320,13 +17324,13 @@
         <v>76</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK139" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>76</v>
@@ -17337,10 +17341,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -17348,10 +17352,10 @@
       </c>
       <c r="E140" s="2"/>
       <c r="F140" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G140" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H140" t="s" s="2">
         <v>76</v>
@@ -17360,16 +17364,16 @@
         <v>76</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" s="2"/>
@@ -17420,19 +17424,19 @@
         <v>76</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH140" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI140" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK140" t="s" s="2">
         <v>76</v>
@@ -17449,10 +17453,10 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -17463,7 +17467,7 @@
         <v>77</v>
       </c>
       <c r="G141" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H141" t="s" s="2">
         <v>76</v>
@@ -17472,16 +17476,16 @@
         <v>76</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N141" s="2"/>
       <c r="O141" s="2"/>
@@ -17532,19 +17536,19 @@
         <v>76</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH141" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI141" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK141" t="s" s="2">
         <v>76</v>
@@ -17561,10 +17565,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -17575,7 +17579,7 @@
         <v>77</v>
       </c>
       <c r="G142" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H142" t="s" s="2">
         <v>76</v>
@@ -17584,19 +17588,19 @@
         <v>76</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O142" s="2"/>
       <c r="P142" t="s" s="2">
@@ -17646,19 +17650,19 @@
         <v>76</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH142" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI142" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK142" t="s" s="2">
         <v>76</v>
@@ -17675,10 +17679,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -17689,7 +17693,7 @@
         <v>77</v>
       </c>
       <c r="G143" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H143" t="s" s="2">
         <v>76</v>
@@ -17698,19 +17702,19 @@
         <v>76</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O143" s="2"/>
       <c r="P143" t="s" s="2">
@@ -17760,19 +17764,19 @@
         <v>76</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH143" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI143" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK143" t="s" s="2">
         <v>76</v>
@@ -17789,10 +17793,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -17803,7 +17807,7 @@
         <v>77</v>
       </c>
       <c r="G144" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H144" t="s" s="2">
         <v>76</v>
@@ -17812,19 +17816,19 @@
         <v>76</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O144" s="2"/>
       <c r="P144" t="s" s="2">
@@ -17874,13 +17878,13 @@
         <v>76</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH144" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI144" t="s" s="2">
         <v>76</v>
@@ -17903,10 +17907,10 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -17917,7 +17921,7 @@
         <v>77</v>
       </c>
       <c r="G145" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H145" t="s" s="2">
         <v>76</v>
@@ -17926,22 +17930,22 @@
         <v>76</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="O145" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P145" t="s" s="2">
         <v>76</v>
@@ -17990,19 +17994,19 @@
         <v>76</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH145" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI145" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ145" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK145" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T21:25:21+00:00</t>
+    <t>2023-01-30T21:26:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T21:26:21+00:00</t>
+    <t>2023-02-01T18:07:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T18:07:18+00:00</t>
+    <t>2023-02-01T18:22:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T18:22:44+00:00</t>
+    <t>2023-02-02T00:15:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T00:15:50+00:00</t>
+    <t>2023-02-02T17:38:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T17:38:38+00:00</t>
+    <t>2023-02-07T22:10:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-07T22:10:03+00:00</t>
+    <t>2023-02-08T18:25:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T18:25:04+00:00</t>
+    <t>2023-02-09T00:02:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T00:02:02+00:00</t>
+    <t>2023-02-09T00:02:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T00:02:19+00:00</t>
+    <t>2023-02-17T22:47:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -896,7 +896,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}invariant-name-use-1:Each type of allowed Name.use can only be used once. {name.where(use = 'nickname').count()&lt;=1 and name.where(use = 'usual').count()&lt;=1 and name.where(use = 'official').count()&lt;=1}invariant-address-type-1:Address.type, if both, must not include any other types of addresses, i.e. no postal and no physical. {address.where(type = 'both').count()&gt;=1 implies (address.where(type = 'physical').count()=0 and address.where(type = 'postal').count()=0)}invariant-address-type-2:Each Address.type, if Address.type is NOT both, must be present no more than once. {address.where(type = 'both').count()=0 implies (address.where(type = 'physical').count()&lt;=1 and address.where(type = 'postal').count()&lt;=1)}invariant-telecom-phone-use-1:Each type of allowed Telecom.use for phone systems can only be used once. {telecom.where(use = 'home' and system='phone').count()&lt;=1 and telecom.where(use = 'work' and system='phone').count()&lt;=1 and telecom.where(use = 'mobile' and system='phone').count()&lt;=1}invariant-telecom-email-use-1:Each type of allowed Telecom.use for email systems can only be used once. {telecom.where(use = 'home' and system='email').count()&lt;=1 and telecom.where(use = 'work' and system='email').count()&lt;=1 and telecom.where(use = 'mobile' and system='email').count()&lt;=1}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T22:47:47+00:00</t>
+    <t>2023-02-17T23:20:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T23:20:35+00:00</t>
+    <t>2023-02-21T21:28:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T21:28:27+00:00</t>
+    <t>2023-02-21T21:29:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T21:29:24+00:00</t>
+    <t>2023-04-17T21:31:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-28T23:19:40+00:00</t>
+    <t>2023-07-28T15:45:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T15:45:10+00:00</t>
+    <t>2023-07-28T16:00:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T16:00:21+00:00</t>
+    <t>2023-07-28T16:52:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T16:52:29+00:00</t>
+    <t>2023-08-14T17:02:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-14T17:02:44+00:00</t>
+    <t>2023-08-14T17:37:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5169" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5169" uniqueCount="347">
   <si>
     <t>Property</t>
   </si>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-14T17:37:04+00:00</t>
+    <t>2023-09-14T16:14:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -143,6 +143,10 @@
   </si>
   <si>
     <t>A container for a collection of resources.</t>
+  </si>
+  <si>
+    <t>bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}
+bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}</t>
   </si>
   <si>
     <t>N/A</t>
@@ -468,6 +472,10 @@
     <t>open</t>
   </si>
   <si>
+    <t>bdl-5:must be a resource unless there's a request or response {resource.exists() or request.exists() or response.exists()}
+bdl-8:fullUrl cannot be a version specific reference {fullUrl.contains('/_history/').not()}ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
+  </si>
+  <si>
     <t>Bundle.entry.id</t>
   </si>
   <si>
@@ -737,10 +745,6 @@
   </si>
   <si>
     <t>Created Patient.</t>
-  </si>
-  <si>
-    <t>bdl-5:must be a resource unless there's a request or response {resource.exists() or request.exists() or response.exists()}
-bdl-8:fullUrl cannot be a version specific reference {fullUrl.contains('/_history/').not()}ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
   </si>
   <si>
     <t>Bundle.entry:patient.id</t>
@@ -1561,16 +1565,16 @@
         <v>36</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AN1" t="s" s="2">
         <v>36</v>
@@ -1578,10 +1582,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1592,7 +1596,7 @@
         <v>37</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>36</v>
@@ -1601,19 +1605,19 @@
         <v>36</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1663,13 +1667,13 @@
         <v>36</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>36</v>
@@ -1692,10 +1696,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1706,7 +1710,7 @@
         <v>37</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>36</v>
@@ -1715,16 +1719,16 @@
         <v>36</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1775,19 +1779,19 @@
         <v>36</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>36</v>
@@ -1804,10 +1808,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1818,28 +1822,28 @@
         <v>37</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1889,19 +1893,19 @@
         <v>36</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>36</v>
@@ -1918,10 +1922,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1932,7 +1936,7 @@
         <v>37</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>36</v>
@@ -1944,16 +1948,16 @@
         <v>36</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1979,13 +1983,13 @@
         <v>36</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>36</v>
@@ -2003,19 +2007,19 @@
         <v>36</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>36</v>
@@ -2032,10 +2036,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2046,7 +2050,7 @@
         <v>37</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>36</v>
@@ -2055,19 +2059,19 @@
         <v>36</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2117,19 +2121,19 @@
         <v>36</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>36</v>
@@ -2138,18 +2142,18 @@
         <v>36</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2157,31 +2161,31 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2189,7 +2193,7 @@
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="S7" t="s" s="2">
         <v>36</v>
@@ -2207,13 +2211,13 @@
         <v>36</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AA7" t="s" s="2">
         <v>36</v>
@@ -2231,19 +2235,19 @@
         <v>36</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>36</v>
@@ -2255,15 +2259,15 @@
         <v>36</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2274,7 +2278,7 @@
         <v>37</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>36</v>
@@ -2283,19 +2287,19 @@
         <v>36</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2345,19 +2349,19 @@
         <v>36</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>36</v>
@@ -2366,18 +2370,18 @@
         <v>36</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2388,7 +2392,7 @@
         <v>37</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>36</v>
@@ -2397,19 +2401,19 @@
         <v>36</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2459,19 +2463,19 @@
         <v>36</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>36</v>
@@ -2488,10 +2492,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2511,19 +2515,19 @@
         <v>36</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2573,7 +2577,7 @@
         <v>36</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>37</v>
@@ -2585,7 +2589,7 @@
         <v>36</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>36</v>
@@ -2602,10 +2606,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2616,7 +2620,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>36</v>
@@ -2628,13 +2632,13 @@
         <v>36</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2685,13 +2689,13 @@
         <v>36</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>36</v>
@@ -2703,7 +2707,7 @@
         <v>36</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>36</v>
@@ -2714,14 +2718,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2740,16 +2744,16 @@
         <v>36</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2799,7 +2803,7 @@
         <v>36</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>37</v>
@@ -2811,13 +2815,13 @@
         <v>36</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>36</v>
@@ -2828,14 +2832,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -2848,25 +2852,25 @@
         <v>36</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>36</v>
@@ -2915,7 +2919,7 @@
         <v>36</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>37</v>
@@ -2927,13 +2931,13 @@
         <v>36</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>36</v>
@@ -2944,10 +2948,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2955,10 +2959,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>36</v>
@@ -2967,16 +2971,16 @@
         <v>36</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3027,19 +3031,19 @@
         <v>36</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>36</v>
@@ -3056,10 +3060,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3067,10 +3071,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>36</v>
@@ -3079,16 +3083,16 @@
         <v>36</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3139,19 +3143,19 @@
         <v>36</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>36</v>
@@ -3168,10 +3172,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3179,10 +3183,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>36</v>
@@ -3191,16 +3195,16 @@
         <v>36</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3239,19 +3243,19 @@
         <v>36</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>37</v>
@@ -3263,7 +3267,7 @@
         <v>36</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>36</v>
@@ -3280,10 +3284,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3294,7 +3298,7 @@
         <v>37</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>36</v>
@@ -3306,13 +3310,13 @@
         <v>36</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3363,13 +3367,13 @@
         <v>36</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>36</v>
@@ -3381,7 +3385,7 @@
         <v>36</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>36</v>
@@ -3392,14 +3396,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3418,16 +3422,16 @@
         <v>36</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3477,7 +3481,7 @@
         <v>36</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>37</v>
@@ -3489,13 +3493,13 @@
         <v>36</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>36</v>
@@ -3506,14 +3510,14 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3526,25 +3530,25 @@
         <v>36</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>36</v>
@@ -3593,7 +3597,7 @@
         <v>36</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>37</v>
@@ -3605,13 +3609,13 @@
         <v>36</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>36</v>
@@ -3622,10 +3626,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3645,16 +3649,16 @@
         <v>36</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3705,7 +3709,7 @@
         <v>36</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>37</v>
@@ -3717,7 +3721,7 @@
         <v>36</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>36</v>
@@ -3734,10 +3738,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3745,31 +3749,31 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3819,19 +3823,19 @@
         <v>36</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>36</v>
@@ -3848,10 +3852,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3859,28 +3863,28 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3931,13 +3935,13 @@
         <v>36</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>36</v>
@@ -3960,10 +3964,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3974,7 +3978,7 @@
         <v>37</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>36</v>
@@ -3983,16 +3987,16 @@
         <v>36</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4043,19 +4047,19 @@
         <v>36</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>36</v>
@@ -4072,10 +4076,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4086,7 +4090,7 @@
         <v>37</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>36</v>
@@ -4098,13 +4102,13 @@
         <v>36</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4155,13 +4159,13 @@
         <v>36</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>36</v>
@@ -4173,7 +4177,7 @@
         <v>36</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>36</v>
@@ -4184,14 +4188,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4210,16 +4214,16 @@
         <v>36</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4269,7 +4273,7 @@
         <v>36</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>37</v>
@@ -4281,13 +4285,13 @@
         <v>36</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>36</v>
@@ -4298,14 +4302,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4318,25 +4322,25 @@
         <v>36</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>36</v>
@@ -4385,7 +4389,7 @@
         <v>36</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>37</v>
@@ -4397,13 +4401,13 @@
         <v>36</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>36</v>
@@ -4414,10 +4418,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4428,7 +4432,7 @@
         <v>37</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>36</v>
@@ -4437,19 +4441,19 @@
         <v>36</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4475,13 +4479,13 @@
         <v>36</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>36</v>
@@ -4499,19 +4503,19 @@
         <v>36</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>36</v>
@@ -4528,10 +4532,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4542,7 +4546,7 @@
         <v>37</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>36</v>
@@ -4551,19 +4555,19 @@
         <v>36</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4613,19 +4617,19 @@
         <v>36</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>36</v>
@@ -4642,10 +4646,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4656,25 +4660,25 @@
         <v>37</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4725,19 +4729,19 @@
         <v>36</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>36</v>
@@ -4754,10 +4758,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4768,7 +4772,7 @@
         <v>37</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>36</v>
@@ -4780,13 +4784,13 @@
         <v>36</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4837,13 +4841,13 @@
         <v>36</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>36</v>
@@ -4855,7 +4859,7 @@
         <v>36</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>36</v>
@@ -4866,14 +4870,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -4892,16 +4896,16 @@
         <v>36</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4951,7 +4955,7 @@
         <v>36</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>37</v>
@@ -4963,13 +4967,13 @@
         <v>36</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>36</v>
@@ -4980,14 +4984,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5000,25 +5004,25 @@
         <v>36</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>36</v>
@@ -5067,7 +5071,7 @@
         <v>36</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>37</v>
@@ -5079,13 +5083,13 @@
         <v>36</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>36</v>
@@ -5096,10 +5100,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5107,10 +5111,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>36</v>
@@ -5119,16 +5123,16 @@
         <v>36</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5155,13 +5159,13 @@
         <v>36</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>36</v>
@@ -5179,19 +5183,19 @@
         <v>36</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>36</v>
@@ -5208,10 +5212,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5219,10 +5223,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>36</v>
@@ -5231,19 +5235,19 @@
         <v>36</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5293,19 +5297,19 @@
         <v>36</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>36</v>
@@ -5322,10 +5326,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5336,7 +5340,7 @@
         <v>37</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>36</v>
@@ -5345,16 +5349,16 @@
         <v>36</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5405,19 +5409,19 @@
         <v>36</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>36</v>
@@ -5434,10 +5438,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5448,7 +5452,7 @@
         <v>37</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>36</v>
@@ -5457,16 +5461,16 @@
         <v>36</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5517,19 +5521,19 @@
         <v>36</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>36</v>
@@ -5546,10 +5550,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5560,7 +5564,7 @@
         <v>37</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>36</v>
@@ -5569,16 +5573,16 @@
         <v>36</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5629,19 +5633,19 @@
         <v>36</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>36</v>
@@ -5658,10 +5662,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5672,7 +5676,7 @@
         <v>37</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>36</v>
@@ -5681,16 +5685,16 @@
         <v>36</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5741,19 +5745,19 @@
         <v>36</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>36</v>
@@ -5770,10 +5774,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5784,7 +5788,7 @@
         <v>37</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>36</v>
@@ -5793,16 +5797,16 @@
         <v>36</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5853,19 +5857,19 @@
         <v>36</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>36</v>
@@ -5882,10 +5886,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5896,7 +5900,7 @@
         <v>37</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>36</v>
@@ -5908,13 +5912,13 @@
         <v>36</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5965,13 +5969,13 @@
         <v>36</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>36</v>
@@ -5983,7 +5987,7 @@
         <v>36</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>36</v>
@@ -5994,14 +5998,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6020,16 +6024,16 @@
         <v>36</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6079,7 +6083,7 @@
         <v>36</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>37</v>
@@ -6091,13 +6095,13 @@
         <v>36</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>36</v>
@@ -6108,14 +6112,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6128,25 +6132,25 @@
         <v>36</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>36</v>
@@ -6195,7 +6199,7 @@
         <v>36</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>37</v>
@@ -6207,13 +6211,13 @@
         <v>36</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>36</v>
@@ -6224,10 +6228,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6235,10 +6239,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>36</v>
@@ -6247,16 +6251,16 @@
         <v>36</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6307,19 +6311,19 @@
         <v>36</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>36</v>
@@ -6336,10 +6340,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6350,7 +6354,7 @@
         <v>37</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>36</v>
@@ -6359,16 +6363,16 @@
         <v>36</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6419,19 +6423,19 @@
         <v>36</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>36</v>
@@ -6448,10 +6452,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6462,7 +6466,7 @@
         <v>37</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>36</v>
@@ -6471,19 +6475,19 @@
         <v>36</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6533,19 +6537,19 @@
         <v>36</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>36</v>
@@ -6562,10 +6566,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6576,7 +6580,7 @@
         <v>37</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>36</v>
@@ -6585,19 +6589,19 @@
         <v>36</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6647,19 +6651,19 @@
         <v>36</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>36</v>
@@ -6676,10 +6680,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6690,7 +6694,7 @@
         <v>37</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>36</v>
@@ -6699,19 +6703,19 @@
         <v>36</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6761,13 +6765,13 @@
         <v>36</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>36</v>
@@ -6790,41 +6794,41 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>36</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6875,7 +6879,7 @@
         <v>36</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>37</v>
@@ -6887,7 +6891,7 @@
         <v>36</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>228</v>
+        <v>142</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>36</v>
@@ -6904,10 +6908,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6918,7 +6922,7 @@
         <v>37</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>36</v>
@@ -6930,13 +6934,13 @@
         <v>36</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6987,13 +6991,13 @@
         <v>36</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>36</v>
@@ -7005,7 +7009,7 @@
         <v>36</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>36</v>
@@ -7016,14 +7020,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7042,16 +7046,16 @@
         <v>36</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7101,7 +7105,7 @@
         <v>36</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>37</v>
@@ -7113,13 +7117,13 @@
         <v>36</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>36</v>
@@ -7130,14 +7134,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7150,25 +7154,25 @@
         <v>36</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>36</v>
@@ -7217,7 +7221,7 @@
         <v>36</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>37</v>
@@ -7229,13 +7233,13 @@
         <v>36</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>36</v>
@@ -7246,10 +7250,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7269,16 +7273,16 @@
         <v>36</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7329,7 +7333,7 @@
         <v>36</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>37</v>
@@ -7341,7 +7345,7 @@
         <v>36</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>36</v>
@@ -7358,10 +7362,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7372,7 +7376,7 @@
         <v>37</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>36</v>
@@ -7381,19 +7385,19 @@
         <v>36</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7443,19 +7447,19 @@
         <v>36</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>36</v>
@@ -7472,21 +7476,21 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>37</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>36</v>
@@ -7498,13 +7502,13 @@
         <v>36</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7555,28 +7559,28 @@
         <v>36</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>36</v>
@@ -7584,10 +7588,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7598,7 +7602,7 @@
         <v>37</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>36</v>
@@ -7607,16 +7611,16 @@
         <v>36</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7667,19 +7671,19 @@
         <v>36</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>36</v>
@@ -7696,10 +7700,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7710,7 +7714,7 @@
         <v>37</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>36</v>
@@ -7722,13 +7726,13 @@
         <v>36</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7779,13 +7783,13 @@
         <v>36</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>36</v>
@@ -7797,7 +7801,7 @@
         <v>36</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>36</v>
@@ -7808,14 +7812,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -7834,16 +7838,16 @@
         <v>36</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -7893,7 +7897,7 @@
         <v>36</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>37</v>
@@ -7905,13 +7909,13 @@
         <v>36</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>36</v>
@@ -7922,14 +7926,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -7942,25 +7946,25 @@
         <v>36</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>36</v>
@@ -8009,7 +8013,7 @@
         <v>36</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>37</v>
@@ -8021,13 +8025,13 @@
         <v>36</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>36</v>
@@ -8038,10 +8042,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8052,7 +8056,7 @@
         <v>37</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>36</v>
@@ -8061,19 +8065,19 @@
         <v>36</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8099,13 +8103,13 @@
         <v>36</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>36</v>
@@ -8123,19 +8127,19 @@
         <v>36</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>36</v>
@@ -8152,10 +8156,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8166,7 +8170,7 @@
         <v>37</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>36</v>
@@ -8175,19 +8179,19 @@
         <v>36</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8237,19 +8241,19 @@
         <v>36</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>36</v>
@@ -8266,10 +8270,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8280,7 +8284,7 @@
         <v>37</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>36</v>
@@ -8289,16 +8293,16 @@
         <v>36</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8349,19 +8353,19 @@
         <v>36</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>36</v>
@@ -8378,10 +8382,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8392,7 +8396,7 @@
         <v>37</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>36</v>
@@ -8404,13 +8408,13 @@
         <v>36</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8461,13 +8465,13 @@
         <v>36</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>36</v>
@@ -8479,7 +8483,7 @@
         <v>36</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>36</v>
@@ -8490,14 +8494,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -8516,16 +8520,16 @@
         <v>36</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -8575,7 +8579,7 @@
         <v>36</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>37</v>
@@ -8587,13 +8591,13 @@
         <v>36</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>36</v>
@@ -8604,14 +8608,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -8624,25 +8628,25 @@
         <v>36</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>36</v>
@@ -8691,7 +8695,7 @@
         <v>36</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>37</v>
@@ -8703,13 +8707,13 @@
         <v>36</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>36</v>
@@ -8720,10 +8724,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8731,10 +8735,10 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>36</v>
@@ -8743,16 +8747,16 @@
         <v>36</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8779,13 +8783,13 @@
         <v>36</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>36</v>
@@ -8803,19 +8807,19 @@
         <v>36</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>36</v>
@@ -8832,10 +8836,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8843,10 +8847,10 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>36</v>
@@ -8855,19 +8859,19 @@
         <v>36</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -8917,19 +8921,19 @@
         <v>36</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>36</v>
@@ -8946,10 +8950,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8960,7 +8964,7 @@
         <v>37</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>36</v>
@@ -8969,16 +8973,16 @@
         <v>36</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9029,19 +9033,19 @@
         <v>36</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>36</v>
@@ -9058,10 +9062,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9072,7 +9076,7 @@
         <v>37</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>36</v>
@@ -9081,16 +9085,16 @@
         <v>36</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9141,19 +9145,19 @@
         <v>36</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>36</v>
@@ -9170,10 +9174,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9184,7 +9188,7 @@
         <v>37</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>36</v>
@@ -9193,16 +9197,16 @@
         <v>36</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9253,19 +9257,19 @@
         <v>36</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>36</v>
@@ -9282,10 +9286,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9296,7 +9300,7 @@
         <v>37</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>36</v>
@@ -9305,16 +9309,16 @@
         <v>36</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9365,19 +9369,19 @@
         <v>36</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>36</v>
@@ -9394,10 +9398,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9408,7 +9412,7 @@
         <v>37</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>36</v>
@@ -9417,16 +9421,16 @@
         <v>36</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9477,19 +9481,19 @@
         <v>36</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>36</v>
@@ -9506,10 +9510,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9520,7 +9524,7 @@
         <v>37</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>36</v>
@@ -9532,13 +9536,13 @@
         <v>36</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9589,13 +9593,13 @@
         <v>36</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>36</v>
@@ -9607,7 +9611,7 @@
         <v>36</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>36</v>
@@ -9618,14 +9622,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -9644,16 +9648,16 @@
         <v>36</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -9703,7 +9707,7 @@
         <v>36</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>37</v>
@@ -9715,13 +9719,13 @@
         <v>36</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>36</v>
@@ -9732,14 +9736,14 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -9752,25 +9756,25 @@
         <v>36</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>36</v>
@@ -9819,7 +9823,7 @@
         <v>36</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>37</v>
@@ -9831,13 +9835,13 @@
         <v>36</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>36</v>
@@ -9848,10 +9852,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9859,10 +9863,10 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>36</v>
@@ -9871,16 +9875,16 @@
         <v>36</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -9931,19 +9935,19 @@
         <v>36</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>36</v>
@@ -9960,10 +9964,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -9974,7 +9978,7 @@
         <v>37</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>36</v>
@@ -9983,16 +9987,16 @@
         <v>36</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10043,19 +10047,19 @@
         <v>36</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>36</v>
@@ -10072,10 +10076,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10086,7 +10090,7 @@
         <v>37</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>36</v>
@@ -10095,19 +10099,19 @@
         <v>36</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -10157,19 +10161,19 @@
         <v>36</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>36</v>
@@ -10186,10 +10190,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10200,7 +10204,7 @@
         <v>37</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>36</v>
@@ -10209,19 +10213,19 @@
         <v>36</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -10271,19 +10275,19 @@
         <v>36</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>36</v>
@@ -10300,10 +10304,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10314,7 +10318,7 @@
         <v>37</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>36</v>
@@ -10323,19 +10327,19 @@
         <v>36</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -10385,13 +10389,13 @@
         <v>36</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>36</v>
@@ -10414,41 +10418,41 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>36</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10499,7 +10503,7 @@
         <v>36</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>37</v>
@@ -10511,7 +10515,7 @@
         <v>36</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>228</v>
+        <v>142</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>36</v>
@@ -10528,10 +10532,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10542,7 +10546,7 @@
         <v>37</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>36</v>
@@ -10554,13 +10558,13 @@
         <v>36</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -10611,13 +10615,13 @@
         <v>36</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>36</v>
@@ -10629,7 +10633,7 @@
         <v>36</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>36</v>
@@ -10640,14 +10644,14 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -10666,16 +10670,16 @@
         <v>36</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -10725,7 +10729,7 @@
         <v>36</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>37</v>
@@ -10737,13 +10741,13 @@
         <v>36</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>36</v>
@@ -10754,14 +10758,14 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -10774,25 +10778,25 @@
         <v>36</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>36</v>
@@ -10841,7 +10845,7 @@
         <v>36</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>37</v>
@@ -10853,13 +10857,13 @@
         <v>36</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>36</v>
@@ -10870,10 +10874,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10893,16 +10897,16 @@
         <v>36</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K84" t="s" s="2">
         <v>36</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -10953,7 +10957,7 @@
         <v>36</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>37</v>
@@ -10965,7 +10969,7 @@
         <v>36</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>36</v>
@@ -10982,10 +10986,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -10996,7 +11000,7 @@
         <v>37</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>36</v>
@@ -11005,19 +11009,19 @@
         <v>36</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -11067,19 +11071,19 @@
         <v>36</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>36</v>
@@ -11096,10 +11100,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11110,7 +11114,7 @@
         <v>37</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>36</v>
@@ -11122,16 +11126,16 @@
         <v>36</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -11181,13 +11185,13 @@
         <v>36</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>36</v>
@@ -11196,10 +11200,10 @@
         <v>36</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>36</v>
@@ -11210,10 +11214,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11224,7 +11228,7 @@
         <v>37</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>36</v>
@@ -11233,16 +11237,16 @@
         <v>36</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11293,19 +11297,19 @@
         <v>36</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>36</v>
@@ -11322,10 +11326,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11336,7 +11340,7 @@
         <v>37</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>36</v>
@@ -11348,13 +11352,13 @@
         <v>36</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -11405,13 +11409,13 @@
         <v>36</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>36</v>
@@ -11423,7 +11427,7 @@
         <v>36</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>36</v>
@@ -11434,14 +11438,14 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -11460,16 +11464,16 @@
         <v>36</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -11519,7 +11523,7 @@
         <v>36</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>37</v>
@@ -11531,13 +11535,13 @@
         <v>36</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>36</v>
@@ -11548,14 +11552,14 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -11568,25 +11572,25 @@
         <v>36</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>36</v>
@@ -11635,7 +11639,7 @@
         <v>36</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>37</v>
@@ -11647,13 +11651,13 @@
         <v>36</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>36</v>
@@ -11664,10 +11668,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -11678,7 +11682,7 @@
         <v>37</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>36</v>
@@ -11687,19 +11691,19 @@
         <v>36</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -11725,13 +11729,13 @@
         <v>36</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>36</v>
@@ -11749,19 +11753,19 @@
         <v>36</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>36</v>
@@ -11778,10 +11782,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11792,7 +11796,7 @@
         <v>37</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>36</v>
@@ -11801,19 +11805,19 @@
         <v>36</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -11863,19 +11867,19 @@
         <v>36</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>36</v>
@@ -11892,10 +11896,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -11906,7 +11910,7 @@
         <v>37</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>36</v>
@@ -11915,16 +11919,16 @@
         <v>36</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -11975,19 +11979,19 @@
         <v>36</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>36</v>
@@ -12004,10 +12008,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12018,7 +12022,7 @@
         <v>37</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>36</v>
@@ -12030,13 +12034,13 @@
         <v>36</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -12087,13 +12091,13 @@
         <v>36</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>36</v>
@@ -12105,7 +12109,7 @@
         <v>36</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>36</v>
@@ -12116,14 +12120,14 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -12142,16 +12146,16 @@
         <v>36</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -12201,7 +12205,7 @@
         <v>36</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>37</v>
@@ -12213,13 +12217,13 @@
         <v>36</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>36</v>
@@ -12230,14 +12234,14 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -12250,25 +12254,25 @@
         <v>36</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>36</v>
@@ -12317,7 +12321,7 @@
         <v>36</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>37</v>
@@ -12329,13 +12333,13 @@
         <v>36</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>36</v>
@@ -12346,10 +12350,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -12357,10 +12361,10 @@
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>36</v>
@@ -12369,16 +12373,16 @@
         <v>36</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -12405,13 +12409,13 @@
         <v>36</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>36</v>
@@ -12429,19 +12433,19 @@
         <v>36</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>36</v>
@@ -12458,10 +12462,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -12469,10 +12473,10 @@
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>36</v>
@@ -12481,19 +12485,19 @@
         <v>36</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -12543,19 +12547,19 @@
         <v>36</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>36</v>
@@ -12572,10 +12576,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12586,7 +12590,7 @@
         <v>37</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>36</v>
@@ -12595,16 +12599,16 @@
         <v>36</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -12655,19 +12659,19 @@
         <v>36</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>36</v>
@@ -12684,10 +12688,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -12698,7 +12702,7 @@
         <v>37</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>36</v>
@@ -12707,16 +12711,16 @@
         <v>36</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -12767,19 +12771,19 @@
         <v>36</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>36</v>
@@ -12796,10 +12800,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -12810,7 +12814,7 @@
         <v>37</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>36</v>
@@ -12819,16 +12823,16 @@
         <v>36</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -12879,19 +12883,19 @@
         <v>36</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>36</v>
@@ -12908,10 +12912,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -12922,7 +12926,7 @@
         <v>37</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>36</v>
@@ -12931,16 +12935,16 @@
         <v>36</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -12991,19 +12995,19 @@
         <v>36</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>36</v>
@@ -13020,10 +13024,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13034,7 +13038,7 @@
         <v>37</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>36</v>
@@ -13043,16 +13047,16 @@
         <v>36</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -13103,19 +13107,19 @@
         <v>36</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>36</v>
@@ -13132,10 +13136,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13146,7 +13150,7 @@
         <v>37</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>36</v>
@@ -13158,13 +13162,13 @@
         <v>36</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -13215,13 +13219,13 @@
         <v>36</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>36</v>
@@ -13233,7 +13237,7 @@
         <v>36</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>36</v>
@@ -13244,14 +13248,14 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -13270,16 +13274,16 @@
         <v>36</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -13329,7 +13333,7 @@
         <v>36</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>37</v>
@@ -13341,13 +13345,13 @@
         <v>36</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>36</v>
@@ -13358,14 +13362,14 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -13378,25 +13382,25 @@
         <v>36</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>36</v>
@@ -13445,7 +13449,7 @@
         <v>36</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>37</v>
@@ -13457,13 +13461,13 @@
         <v>36</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>36</v>
@@ -13474,10 +13478,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -13485,10 +13489,10 @@
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>36</v>
@@ -13497,16 +13501,16 @@
         <v>36</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -13557,19 +13561,19 @@
         <v>36</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>36</v>
@@ -13586,10 +13590,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -13600,7 +13604,7 @@
         <v>37</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>36</v>
@@ -13609,16 +13613,16 @@
         <v>36</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -13669,19 +13673,19 @@
         <v>36</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>36</v>
@@ -13698,10 +13702,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -13712,7 +13716,7 @@
         <v>37</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>36</v>
@@ -13721,19 +13725,19 @@
         <v>36</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -13783,19 +13787,19 @@
         <v>36</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>36</v>
@@ -13812,10 +13816,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -13826,7 +13830,7 @@
         <v>37</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>36</v>
@@ -13835,19 +13839,19 @@
         <v>36</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
@@ -13897,19 +13901,19 @@
         <v>36</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>36</v>
@@ -13926,10 +13930,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -13940,7 +13944,7 @@
         <v>37</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>36</v>
@@ -13949,19 +13953,19 @@
         <v>36</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -14011,13 +14015,13 @@
         <v>36</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>36</v>
@@ -14040,13 +14044,13 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D112" t="s" s="2">
         <v>36</v>
@@ -14056,25 +14060,25 @@
         <v>37</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H112" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I112" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -14125,7 +14129,7 @@
         <v>36</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>37</v>
@@ -14137,7 +14141,7 @@
         <v>36</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>228</v>
+        <v>142</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>36</v>
@@ -14154,10 +14158,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -14168,7 +14172,7 @@
         <v>37</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H113" t="s" s="2">
         <v>36</v>
@@ -14180,13 +14184,13 @@
         <v>36</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -14237,13 +14241,13 @@
         <v>36</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>36</v>
@@ -14255,7 +14259,7 @@
         <v>36</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>36</v>
@@ -14266,14 +14270,14 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
@@ -14292,16 +14296,16 @@
         <v>36</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -14351,7 +14355,7 @@
         <v>36</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>37</v>
@@ -14363,13 +14367,13 @@
         <v>36</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>36</v>
@@ -14380,14 +14384,14 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
@@ -14400,25 +14404,25 @@
         <v>36</v>
       </c>
       <c r="I115" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>36</v>
@@ -14467,7 +14471,7 @@
         <v>36</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>37</v>
@@ -14479,13 +14483,13 @@
         <v>36</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>36</v>
@@ -14496,10 +14500,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -14519,16 +14523,16 @@
         <v>36</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K116" t="s" s="2">
         <v>36</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
@@ -14579,7 +14583,7 @@
         <v>36</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>37</v>
@@ -14591,7 +14595,7 @@
         <v>36</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>36</v>
@@ -14608,10 +14612,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -14622,7 +14626,7 @@
         <v>37</v>
       </c>
       <c r="G117" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H117" t="s" s="2">
         <v>36</v>
@@ -14631,19 +14635,19 @@
         <v>36</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
@@ -14693,19 +14697,19 @@
         <v>36</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI117" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK117" t="s" s="2">
         <v>36</v>
@@ -14722,10 +14726,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -14736,7 +14740,7 @@
         <v>37</v>
       </c>
       <c r="G118" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H118" t="s" s="2">
         <v>36</v>
@@ -14745,16 +14749,16 @@
         <v>36</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
@@ -14805,13 +14809,13 @@
         <v>36</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI118" t="s" s="2">
         <v>36</v>
@@ -14834,10 +14838,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -14848,7 +14852,7 @@
         <v>37</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H119" t="s" s="2">
         <v>36</v>
@@ -14857,16 +14861,16 @@
         <v>36</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -14917,19 +14921,19 @@
         <v>36</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK119" t="s" s="2">
         <v>36</v>
@@ -14946,10 +14950,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -14960,7 +14964,7 @@
         <v>37</v>
       </c>
       <c r="G120" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H120" t="s" s="2">
         <v>36</v>
@@ -14972,13 +14976,13 @@
         <v>36</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
@@ -15029,13 +15033,13 @@
         <v>36</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH120" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI120" t="s" s="2">
         <v>36</v>
@@ -15047,7 +15051,7 @@
         <v>36</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>36</v>
@@ -15058,14 +15062,14 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
@@ -15084,16 +15088,16 @@
         <v>36</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
@@ -15143,7 +15147,7 @@
         <v>36</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>37</v>
@@ -15155,13 +15159,13 @@
         <v>36</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK121" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>36</v>
@@ -15172,14 +15176,14 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
@@ -15192,25 +15196,25 @@
         <v>36</v>
       </c>
       <c r="I122" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>36</v>
@@ -15259,7 +15263,7 @@
         <v>36</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>37</v>
@@ -15271,13 +15275,13 @@
         <v>36</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>36</v>
@@ -15288,10 +15292,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -15302,7 +15306,7 @@
         <v>37</v>
       </c>
       <c r="G123" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H123" t="s" s="2">
         <v>36</v>
@@ -15311,19 +15315,19 @@
         <v>36</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
@@ -15349,13 +15353,13 @@
         <v>36</v>
       </c>
       <c r="X123" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y123" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Z123" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AA123" t="s" s="2">
         <v>36</v>
@@ -15373,19 +15377,19 @@
         <v>36</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI123" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>36</v>
@@ -15402,10 +15406,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -15416,7 +15420,7 @@
         <v>37</v>
       </c>
       <c r="G124" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H124" t="s" s="2">
         <v>36</v>
@@ -15425,19 +15429,19 @@
         <v>36</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O124" s="2"/>
       <c r="P124" t="s" s="2">
@@ -15487,19 +15491,19 @@
         <v>36</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI124" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK124" t="s" s="2">
         <v>36</v>
@@ -15516,10 +15520,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -15530,7 +15534,7 @@
         <v>37</v>
       </c>
       <c r="G125" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H125" t="s" s="2">
         <v>36</v>
@@ -15539,16 +15543,16 @@
         <v>36</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
@@ -15599,19 +15603,19 @@
         <v>36</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH125" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK125" t="s" s="2">
         <v>36</v>
@@ -15628,10 +15632,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -15642,7 +15646,7 @@
         <v>37</v>
       </c>
       <c r="G126" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H126" t="s" s="2">
         <v>36</v>
@@ -15654,13 +15658,13 @@
         <v>36</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
@@ -15711,13 +15715,13 @@
         <v>36</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI126" t="s" s="2">
         <v>36</v>
@@ -15729,7 +15733,7 @@
         <v>36</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM126" t="s" s="2">
         <v>36</v>
@@ -15740,14 +15744,14 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" t="s" s="2">
@@ -15766,16 +15770,16 @@
         <v>36</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O127" s="2"/>
       <c r="P127" t="s" s="2">
@@ -15825,7 +15829,7 @@
         <v>36</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>37</v>
@@ -15837,13 +15841,13 @@
         <v>36</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK127" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>36</v>
@@ -15854,14 +15858,14 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128" t="s" s="2">
@@ -15874,25 +15878,25 @@
         <v>36</v>
       </c>
       <c r="I128" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>36</v>
@@ -15941,7 +15945,7 @@
         <v>36</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>37</v>
@@ -15953,13 +15957,13 @@
         <v>36</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK128" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM128" t="s" s="2">
         <v>36</v>
@@ -15970,10 +15974,10 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -15981,10 +15985,10 @@
       </c>
       <c r="E129" s="2"/>
       <c r="F129" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G129" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H129" t="s" s="2">
         <v>36</v>
@@ -15993,16 +15997,16 @@
         <v>36</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
@@ -16029,13 +16033,13 @@
         <v>36</v>
       </c>
       <c r="X129" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y129" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Z129" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AA129" t="s" s="2">
         <v>36</v>
@@ -16053,19 +16057,19 @@
         <v>36</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH129" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI129" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK129" t="s" s="2">
         <v>36</v>
@@ -16082,10 +16086,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -16093,10 +16097,10 @@
       </c>
       <c r="E130" s="2"/>
       <c r="F130" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G130" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H130" t="s" s="2">
         <v>36</v>
@@ -16105,19 +16109,19 @@
         <v>36</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O130" s="2"/>
       <c r="P130" t="s" s="2">
@@ -16167,19 +16171,19 @@
         <v>36</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH130" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI130" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK130" t="s" s="2">
         <v>36</v>
@@ -16196,10 +16200,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -16210,7 +16214,7 @@
         <v>37</v>
       </c>
       <c r="G131" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H131" t="s" s="2">
         <v>36</v>
@@ -16219,16 +16223,16 @@
         <v>36</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
@@ -16279,19 +16283,19 @@
         <v>36</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH131" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI131" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK131" t="s" s="2">
         <v>36</v>
@@ -16308,10 +16312,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -16322,7 +16326,7 @@
         <v>37</v>
       </c>
       <c r="G132" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H132" t="s" s="2">
         <v>36</v>
@@ -16331,16 +16335,16 @@
         <v>36</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" s="2"/>
@@ -16391,19 +16395,19 @@
         <v>36</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH132" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI132" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK132" t="s" s="2">
         <v>36</v>
@@ -16420,10 +16424,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -16434,7 +16438,7 @@
         <v>37</v>
       </c>
       <c r="G133" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H133" t="s" s="2">
         <v>36</v>
@@ -16443,16 +16447,16 @@
         <v>36</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" s="2"/>
@@ -16503,19 +16507,19 @@
         <v>36</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH133" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI133" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ133" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK133" t="s" s="2">
         <v>36</v>
@@ -16532,10 +16536,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -16546,7 +16550,7 @@
         <v>37</v>
       </c>
       <c r="G134" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H134" t="s" s="2">
         <v>36</v>
@@ -16555,16 +16559,16 @@
         <v>36</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" s="2"/>
@@ -16615,19 +16619,19 @@
         <v>36</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH134" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI134" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ134" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK134" t="s" s="2">
         <v>36</v>
@@ -16644,10 +16648,10 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -16658,7 +16662,7 @@
         <v>37</v>
       </c>
       <c r="G135" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H135" t="s" s="2">
         <v>36</v>
@@ -16667,16 +16671,16 @@
         <v>36</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -16727,19 +16731,19 @@
         <v>36</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH135" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK135" t="s" s="2">
         <v>36</v>
@@ -16756,10 +16760,10 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -16770,7 +16774,7 @@
         <v>37</v>
       </c>
       <c r="G136" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H136" t="s" s="2">
         <v>36</v>
@@ -16782,13 +16786,13 @@
         <v>36</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" s="2"/>
@@ -16839,13 +16843,13 @@
         <v>36</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH136" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI136" t="s" s="2">
         <v>36</v>
@@ -16857,7 +16861,7 @@
         <v>36</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM136" t="s" s="2">
         <v>36</v>
@@ -16868,14 +16872,14 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" t="s" s="2">
@@ -16894,16 +16898,16 @@
         <v>36</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O137" s="2"/>
       <c r="P137" t="s" s="2">
@@ -16953,7 +16957,7 @@
         <v>36</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>37</v>
@@ -16965,13 +16969,13 @@
         <v>36</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK137" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM137" t="s" s="2">
         <v>36</v>
@@ -16982,14 +16986,14 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138" t="s" s="2">
@@ -17002,25 +17006,25 @@
         <v>36</v>
       </c>
       <c r="I138" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O138" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>36</v>
@@ -17069,7 +17073,7 @@
         <v>36</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>37</v>
@@ -17081,13 +17085,13 @@
         <v>36</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK138" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM138" t="s" s="2">
         <v>36</v>
@@ -17098,10 +17102,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -17109,10 +17113,10 @@
       </c>
       <c r="E139" s="2"/>
       <c r="F139" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G139" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H139" t="s" s="2">
         <v>36</v>
@@ -17121,16 +17125,16 @@
         <v>36</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" s="2"/>
@@ -17181,19 +17185,19 @@
         <v>36</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH139" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI139" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK139" t="s" s="2">
         <v>36</v>
@@ -17210,10 +17214,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -17224,7 +17228,7 @@
         <v>37</v>
       </c>
       <c r="G140" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H140" t="s" s="2">
         <v>36</v>
@@ -17233,16 +17237,16 @@
         <v>36</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" s="2"/>
@@ -17293,19 +17297,19 @@
         <v>36</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH140" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI140" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK140" t="s" s="2">
         <v>36</v>
@@ -17322,10 +17326,10 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -17336,7 +17340,7 @@
         <v>37</v>
       </c>
       <c r="G141" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H141" t="s" s="2">
         <v>36</v>
@@ -17345,19 +17349,19 @@
         <v>36</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="O141" s="2"/>
       <c r="P141" t="s" s="2">
@@ -17407,19 +17411,19 @@
         <v>36</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH141" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI141" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK141" t="s" s="2">
         <v>36</v>
@@ -17436,10 +17440,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -17450,7 +17454,7 @@
         <v>37</v>
       </c>
       <c r="G142" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H142" t="s" s="2">
         <v>36</v>
@@ -17459,19 +17463,19 @@
         <v>36</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="O142" s="2"/>
       <c r="P142" t="s" s="2">
@@ -17521,19 +17525,19 @@
         <v>36</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH142" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI142" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK142" t="s" s="2">
         <v>36</v>
@@ -17550,10 +17554,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -17564,7 +17568,7 @@
         <v>37</v>
       </c>
       <c r="G143" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H143" t="s" s="2">
         <v>36</v>
@@ -17573,19 +17577,19 @@
         <v>36</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O143" s="2"/>
       <c r="P143" t="s" s="2">
@@ -17635,13 +17639,13 @@
         <v>36</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH143" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI143" t="s" s="2">
         <v>36</v>
@@ -17664,10 +17668,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -17678,7 +17682,7 @@
         <v>37</v>
       </c>
       <c r="G144" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H144" t="s" s="2">
         <v>36</v>
@@ -17687,22 +17691,22 @@
         <v>36</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O144" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P144" t="s" s="2">
         <v>36</v>
@@ -17751,19 +17755,19 @@
         <v>36</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH144" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI144" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ144" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK144" t="s" s="2">
         <v>36</v>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-14T16:14:11+00:00</t>
+    <t>2023-10-18T23:27:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T23:27:00+00:00</t>
+    <t>2023-10-20T17:32:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T17:32:48+00:00</t>
+    <t>2023-10-20T21:39:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T21:39:43+00:00</t>
+    <t>2023-10-25T21:08:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-19T19:46:50+00:00</t>
+    <t>2024-01-29T03:29:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T03:29:58+00:00</t>
+    <t>2024-01-29T15:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T15:29:51+00:00</t>
+    <t>2024-01-30T22:14:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T22:14:57+00:00</t>
+    <t>2024-01-30T22:36:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T22:36:39+00:00</t>
+    <t>2024-02-05T17:54:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T17:54:19+00:00</t>
+    <t>2024-02-22T21:56:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-22T21:56:41+00:00</t>
+    <t>2024-02-22T22:07:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5209" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5209" uniqueCount="386">
   <si>
     <t>Property</t>
   </si>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-22T22:07:28+00:00</t>
+    <t>2024-03-08T19:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -897,10 +897,6 @@
   </si>
   <si>
     <t>The Patient Profile is based upon the core FHIR Patient Resource</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>
@@ -7814,16 +7810,16 @@
         <v>76</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AK55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL55" t="s" s="2">
+      <c r="AM55" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>76</v>
@@ -7831,7 +7827,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>197</v>
@@ -7943,7 +7939,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>201</v>
@@ -8055,7 +8051,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>202</v>
@@ -8169,7 +8165,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>203</v>
@@ -8285,7 +8281,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>204</v>
@@ -8399,7 +8395,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>210</v>
@@ -8513,7 +8509,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>215</v>
@@ -8625,7 +8621,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>219</v>
@@ -8737,7 +8733,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>220</v>
@@ -8851,7 +8847,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>221</v>
@@ -8967,7 +8963,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>222</v>
@@ -9079,7 +9075,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>227</v>
@@ -9193,7 +9189,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>231</v>
@@ -9305,7 +9301,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>234</v>
@@ -9417,7 +9413,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>236</v>
@@ -9529,7 +9525,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>239</v>
@@ -9641,7 +9637,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>242</v>
@@ -9753,7 +9749,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>246</v>
@@ -9865,7 +9861,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>247</v>
@@ -9979,7 +9975,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>248</v>
@@ -10095,7 +10091,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>249</v>
@@ -10207,7 +10203,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>252</v>
@@ -10319,7 +10315,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>255</v>
@@ -10433,7 +10429,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>259</v>
@@ -10547,7 +10543,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>263</v>
@@ -10661,13 +10657,13 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>174</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>76</v>
@@ -10692,7 +10688,7 @@
         <v>144</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M81" t="s" s="2">
         <v>178</v>
@@ -10775,7 +10771,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>183</v>
@@ -10887,7 +10883,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>184</v>
@@ -11001,7 +10997,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>185</v>
@@ -11117,7 +11113,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>186</v>
@@ -11229,7 +11225,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>189</v>
@@ -11343,7 +11339,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>193</v>
@@ -11369,16 +11365,16 @@
         <v>76</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -11457,7 +11453,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>197</v>
@@ -11569,7 +11565,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>201</v>
@@ -11681,7 +11677,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>202</v>
@@ -11795,7 +11791,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>203</v>
@@ -11911,7 +11907,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>204</v>
@@ -12025,7 +12021,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>210</v>
@@ -12139,7 +12135,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>215</v>
@@ -12251,7 +12247,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>219</v>
@@ -12363,7 +12359,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>220</v>
@@ -12477,7 +12473,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>221</v>
@@ -12593,7 +12589,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>222</v>
@@ -12705,7 +12701,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>227</v>
@@ -12819,7 +12815,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>231</v>
@@ -12931,7 +12927,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>234</v>
@@ -13043,7 +13039,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>236</v>
@@ -13155,7 +13151,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>239</v>
@@ -13267,7 +13263,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>242</v>
@@ -13379,7 +13375,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>246</v>
@@ -13491,7 +13487,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>247</v>
@@ -13605,7 +13601,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>248</v>
@@ -13721,7 +13717,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>249</v>
@@ -13833,7 +13829,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>252</v>
@@ -13945,7 +13941,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>255</v>
@@ -14059,7 +14055,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>259</v>
@@ -14173,7 +14169,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>263</v>
@@ -14287,13 +14283,13 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>174</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D113" t="s" s="2">
         <v>76</v>
@@ -14318,7 +14314,7 @@
         <v>144</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M113" t="s" s="2">
         <v>178</v>
@@ -14401,7 +14397,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>183</v>
@@ -14513,7 +14509,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>184</v>
@@ -14627,7 +14623,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>185</v>
@@ -14743,7 +14739,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>186</v>
@@ -14855,7 +14851,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>189</v>
@@ -14969,7 +14965,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>193</v>
@@ -14995,7 +14991,7 @@
         <v>87</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L119" t="s" s="2">
         <v>195</v>
@@ -15081,7 +15077,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>197</v>
@@ -15193,7 +15189,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>201</v>
@@ -15305,7 +15301,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>202</v>
@@ -15419,7 +15415,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>203</v>
@@ -15535,7 +15531,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>204</v>
@@ -15649,7 +15645,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>210</v>
@@ -15763,7 +15759,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>215</v>
@@ -15875,7 +15871,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>219</v>
@@ -15987,7 +15983,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>220</v>
@@ -16101,7 +16097,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>221</v>
@@ -16217,7 +16213,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>222</v>
@@ -16329,7 +16325,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>227</v>
@@ -16443,7 +16439,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>231</v>
@@ -16555,7 +16551,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>234</v>
@@ -16667,7 +16663,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>236</v>
@@ -16779,7 +16775,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>239</v>
@@ -16891,7 +16887,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>242</v>
@@ -17003,7 +16999,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>246</v>
@@ -17115,7 +17111,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>247</v>
@@ -17229,7 +17225,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>248</v>
@@ -17345,7 +17341,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>249</v>
@@ -17457,7 +17453,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B141" t="s" s="2">
         <v>252</v>
@@ -17569,7 +17565,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B142" t="s" s="2">
         <v>255</v>
@@ -17683,7 +17679,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>259</v>
@@ -17797,7 +17793,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>263</v>
@@ -17911,10 +17907,10 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -17937,19 +17933,19 @@
         <v>87</v>
       </c>
       <c r="K145" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L145" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="L145" t="s" s="2">
+      <c r="M145" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="M145" t="s" s="2">
+      <c r="N145" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="N145" t="s" s="2">
+      <c r="O145" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="O145" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="P145" t="s" s="2">
         <v>76</v>
@@ -17998,7 +17994,7 @@
         <v>76</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>77</v>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-08T19:30:19+00:00</t>
+    <t>2024-03-25T22:09:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T22:09:10+00:00</t>
+    <t>2024-04-16T20:55:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>BC Ministry of Health (https://www2.gov.bc.ca/gov/content/governments/organizational-structure/ministries-organizations/ministries/health)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T20:55:14+00:00</t>
+    <t>2024-04-16T21:07:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T21:07:01+00:00</t>
+    <t>2024-04-23T21:08:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-23T21:08:53+00:00</t>
+    <t>2024-04-26T16:50:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-26T16:50:56+00:00</t>
+    <t>2024-04-28T02:00:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-28T02:00:16+00:00</t>
+    <t>2024-05-03T17:46:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T17:46:35+00:00</t>
+    <t>2024-05-03T18:19:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T18:19:03+00:00</t>
+    <t>2024-05-03T21:10:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T21:10:00+00:00</t>
+    <t>2024-05-03T21:38:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T21:38:12+00:00</t>
+    <t>2024-05-14T21:02:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-add-request-bundle.xlsx
+++ b/StructureDefinition-bc-add-request-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-14T21:02:37+00:00</t>
+    <t>2024-06-07T23:38:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
